--- a/data/output/fpros_merged_formatted.xlsx
+++ b/data/output/fpros_merged_formatted.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
     </font>
     <font>
       <color rgb="00008000"/>
@@ -62,7 +62,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E6FA"/>
+        <fgColor rgb="00B0C4DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,11 @@
           <t>Team (Bye)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Position Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -551,6 +556,11 @@
           <t>SF (9)</t>
         </is>
       </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -561,7 +571,7 @@
       <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -572,6 +582,11 @@
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -584,7 +599,7 @@
       <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -595,6 +610,11 @@
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -620,6 +640,11 @@
           <t>CIN (12)</t>
         </is>
       </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -630,7 +655,7 @@
       <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -641,6 +666,11 @@
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>DET (5)</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -653,7 +683,7 @@
       <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -664,6 +694,11 @@
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -676,7 +711,7 @@
       <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -687,6 +722,11 @@
       <c r="E8" s="3" t="inlineStr">
         <is>
           <t>ATL (12)</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -699,7 +739,7 @@
       <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -710,6 +750,11 @@
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>NYJ (12)</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -722,7 +767,7 @@
       <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -733,6 +778,11 @@
       <c r="E10" s="3" t="inlineStr">
         <is>
           <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -745,7 +795,7 @@
       <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -756,6 +806,11 @@
       <c r="E11" s="3" t="inlineStr">
         <is>
           <t>NYJ (12)</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -769,62 +824,77 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs</t>
+          <t>Jonathan Taylor</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>DET (5)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>RB5</t>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>WR8</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>16</v>
+      <c r="C13" s="6" t="n">
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Jonathan Taylor</t>
+          <t>Puka Nacua</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>WR8</t>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RB5</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>12</v>
+      <c r="C14" s="6" t="n">
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Puka Nacua</t>
+          <t>Jahmyr Gibbs</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>LAR (6)</t>
+          <t>DET (5)</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -837,7 +907,7 @@
       <c r="B15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="6" t="n">
         <v>18</v>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -848,6 +918,11 @@
       <c r="E15" s="3" t="inlineStr">
         <is>
           <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -860,17 +935,22 @@
       <c r="B16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>22</v>
+      <c r="C16" s="4" t="n">
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Marvin Harrison</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>LV (10)</t>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -883,17 +963,22 @@
       <c r="B17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>25</v>
+      <c r="C17" s="4" t="n">
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Marvin Harrison</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>ARI (11)</t>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -906,17 +991,22 @@
       <c r="B18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>29</v>
+      <c r="C18" s="4" t="n">
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Chris Olave</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>ATL (12)</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -929,17 +1019,22 @@
       <c r="B19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>24</v>
+      <c r="C19" s="4" t="n">
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>Chris Olave</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>ATL (12)</t>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -952,7 +1047,7 @@
       <c r="B20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="4" t="n">
         <v>38</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -965,96 +1060,121 @@
           <t>BUF (12)</t>
         </is>
       </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>WR13</t>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RB7</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="n">
-        <v>57</v>
+      <c r="C21" s="4" t="n">
+        <v>32</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Michael Pittman</t>
+          <t>Travis Etienne</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>JAC (12)</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>RB7</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>WR13</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>32</v>
+      <c r="C22" s="8" t="n">
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Travis Etienne</t>
+          <t>Michael Pittman</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>JAC (12)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>QB2</t>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>WR14</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <v>26</v>
+      <c r="C23" s="9" t="n">
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Jalen Hurts</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>PHI (5)</t>
+          <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>WR14</t>
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>QB2</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="n">
-        <v>14</v>
+      <c r="C24" s="6" t="n">
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Jalen Hurts</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>MIA (6)</t>
+          <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1187,7 @@
       <c r="B25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="6" t="n">
         <v>20</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1078,6 +1198,11 @@
       <c r="E25" s="3" t="inlineStr">
         <is>
           <t>SF (9)</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1215,7 @@
       <c r="B26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1101,6 +1226,11 @@
       <c r="E26" s="3" t="inlineStr">
         <is>
           <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -1114,85 +1244,105 @@
         <v>26</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Nico Collins</t>
+          <t>Cooper Kupp</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>HOU (14)</t>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
-        <is>
-          <t>TE1</t>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>WR18</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="n">
-        <v>47</v>
+      <c r="C28" s="9" t="n">
+        <v>15</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Sam LaPorta</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>DET (5)</t>
+          <t>HOU (14)</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>RB8</t>
+      <c r="A29" s="10" t="inlineStr">
+        <is>
+          <t>TE1</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="11" t="n">
-        <v>11</v>
+      <c r="C29" s="8" t="n">
+        <v>47</v>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Kyren Williams</t>
+          <t>Sam LaPorta</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>LAR (6)</t>
+          <t>DET (5)</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>WR18</t>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RB8</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="9" t="n">
-        <v>17</v>
+      <c r="C30" s="11" t="n">
+        <v>11</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Cooper Kupp</t>
+          <t>Kyren Williams</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
           <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1355,7 @@
       <c r="B31" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="4" t="n">
         <v>37</v>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1216,6 +1366,11 @@
       <c r="E31" s="3" t="inlineStr">
         <is>
           <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1383,7 @@
       <c r="B32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="4" t="n">
         <v>42</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1241,132 +1396,162 @@
           <t>BAL (14)</t>
         </is>
       </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>WR19</t>
+      <c r="A33" s="10" t="inlineStr">
+        <is>
+          <t>TE2</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="n">
-        <v>40</v>
+      <c r="C33" s="4" t="n">
+        <v>39</v>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>DJ Moore</t>
+          <t>Travis Kelce</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="inlineStr">
-        <is>
-          <t>TE2</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RB9</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="C34" s="6" t="n">
-        <v>39</v>
+      <c r="C34" s="9" t="n">
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>Isiah Pacheco</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
           <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>WR20</t>
+          <t>WR19</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>DJ Moore</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>SEA (10)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>RB9</t>
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>WR20</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>De'Von Achane</t>
+          <t>Deebo Samuel</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>MIA (6)</t>
+          <t>SF (9)</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>WR21</t>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RB10</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>Deebo Samuel</t>
+          <t>De'Von Achane</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>SF (9)</t>
+          <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>WR22</t>
+          <t>WR21</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1379,27 +1564,37 @@
           <t>PHI (5)</t>
         </is>
       </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>RB10</t>
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>WR22</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="C39" s="9" t="n">
-        <v>27</v>
+      <c r="C39" s="6" t="n">
+        <v>33</v>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Isiah Pacheco</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>KC (6)</t>
+          <t>SEA (10)</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -1412,63 +1607,78 @@
       <c r="B40" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="n">
-        <v>45</v>
+      <c r="C40" s="9" t="n">
+        <v>31</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>Rachaad White</t>
+          <t>Derrick Henry</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>RB12</t>
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>WR23</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="9" t="n">
-        <v>31</v>
+      <c r="C41" s="11" t="n">
+        <v>23</v>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
+          <t>Malik Nabers</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>BAL (14)</t>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>WR23</t>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RB12</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="4" t="n">
-        <v>44</v>
+      <c r="C42" s="6" t="n">
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Rachaad White</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>HOU (14)</t>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1691,22 @@
       <c r="B43" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="11" t="n">
-        <v>23</v>
+      <c r="C43" s="9" t="n">
+        <v>34</v>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>Malik Nabers</t>
+          <t>Amari Cooper</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>NYG (11)</t>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -1504,17 +1719,22 @@
       <c r="B44" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="9" t="n">
-        <v>34</v>
+      <c r="C44" s="6" t="n">
+        <v>44</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>Amari Cooper</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>CLE (10)</t>
+          <t>HOU (14)</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -1540,34 +1760,44 @@
           <t>NO (12)</t>
         </is>
       </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>QB5</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RB14</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="n">
-        <v>53</v>
+      <c r="C46" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>Anthony Richardson</t>
+          <t>James Cook</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>RB14</t>
+          <t>RB15</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
@@ -1586,27 +1816,37 @@
           <t>GB (10)</t>
         </is>
       </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>RB15</t>
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>QB5</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="n">
-        <v>54</v>
+      <c r="C48" s="6" t="n">
+        <v>53</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>James Cook</t>
+          <t>Anthony Richardson</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1859,7 @@
       <c r="B49" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="6" t="n">
         <v>48</v>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1632,50 +1872,65 @@
           <t>ARI (11)</t>
         </is>
       </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
-        <is>
-          <t>WR26</t>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RB16</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="n">
-        <v>51</v>
+      <c r="C50" s="6" t="n">
+        <v>46</v>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>Zay Flowers</t>
+          <t>Joe Mixon</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>BAL (14)</t>
+          <t>HOU (14)</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>RB16</t>
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>WR26</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>46</v>
+      <c r="C51" s="6" t="n">
+        <v>51</v>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>Joe Mixon</t>
+          <t>Zay Flowers</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>HOU (14)</t>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1943,7 @@
       <c r="B52" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="6" t="n">
         <v>49</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -1701,172 +1956,212 @@
           <t>JAC (12)</t>
         </is>
       </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="inlineStr">
-        <is>
-          <t>QB6</t>
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>WR28</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="n">
-        <v>52</v>
+      <c r="C53" s="9" t="n">
+        <v>43</v>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>C.J. Stroud</t>
+          <t>Tee Higgins</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>HOU (14)</t>
+          <t>CIN (12)</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t>WR28</t>
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>QB6</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="C54" s="9" t="n">
-        <v>43</v>
+      <c r="C54" s="6" t="n">
+        <v>52</v>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>Tee Higgins</t>
+          <t>C.J. Stroud</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>CIN (12)</t>
+          <t>HOU (14)</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>RB17</t>
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>WR29</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="C55" s="6" t="n">
-        <v>66</v>
+      <c r="C55" s="11" t="n">
+        <v>41</v>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>Kenneth WalkerI</t>
+          <t>George Pickens</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>SEA (10)</t>
+          <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>WR29</t>
+          <t>WR30</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="C56" s="8" t="n">
-        <v>71</v>
+      <c r="C56" s="4" t="n">
+        <v>64</v>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>Terry McLaurin</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>WAS (14)</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="10" t="inlineStr">
-        <is>
-          <t>TE4</t>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RB17</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
         <v>56</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>Mark Andrews</t>
+          <t>Kenneth WalkerI</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>BAL (14)</t>
+          <t>SEA (10)</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>WR30</t>
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>TE4</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="C58" s="11" t="n">
-        <v>41</v>
+      <c r="C58" s="6" t="n">
+        <v>50</v>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>George Pickens</t>
+          <t>Mark Andrews</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>PIT (9)</t>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>WR31</t>
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>QB7</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
         <v>58</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
+          <t>Kyler Murray</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>WAS (14)</t>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>WR32</t>
+          <t>WR31</t>
         </is>
       </c>
       <c r="B60" s="3" t="n">
@@ -1885,132 +2180,162 @@
           <t>HOU (14)</t>
         </is>
       </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="inlineStr">
         <is>
-          <t>QB7</t>
+          <t>QB8</t>
         </is>
       </c>
       <c r="B61" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="6" t="n">
-        <v>75</v>
+      <c r="C61" s="4" t="n">
+        <v>88</v>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>Kyler Murray</t>
+          <t>Joe Burrow</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>ARI (11)</t>
+          <t>CIN (12)</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="inlineStr">
-        <is>
-          <t>QB8</t>
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>WR32</t>
         </is>
       </c>
       <c r="B62" s="3" t="n">
         <v>61</v>
       </c>
       <c r="C62" s="6" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Joe Burrow</t>
+          <t>Rashee Rice</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>CIN (12)</t>
+          <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="inlineStr">
-        <is>
-          <t>QB9</t>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>WR33</t>
         </is>
       </c>
       <c r="B63" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="6" t="n">
-        <v>81</v>
+      <c r="C63" s="4" t="n">
+        <v>74</v>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>Dak Prescott</t>
+          <t>Chris Godwin</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>DAL (7)</t>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>WR33</t>
+          <t>WR34</t>
         </is>
       </c>
       <c r="B64" s="3" t="n">
         <v>63</v>
       </c>
       <c r="C64" s="6" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>Chris Godwin</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>RB18</t>
+      <c r="A65" s="7" t="inlineStr">
+        <is>
+          <t>QB9</t>
         </is>
       </c>
       <c r="B65" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="8" t="n">
-        <v>99</v>
+      <c r="C65" s="4" t="n">
+        <v>81</v>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Aaron Jones</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>MIN (6)</t>
+          <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>RB19</t>
+          <t>RB18</t>
         </is>
       </c>
       <c r="B66" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C66" s="6" t="n">
+      <c r="C66" s="4" t="n">
         <v>77</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -2021,19 +2346,24 @@
       <c r="E66" s="3" t="inlineStr">
         <is>
           <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>WR34</t>
+          <t>WR35</t>
         </is>
       </c>
       <c r="B67" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="6" t="n">
         <v>58</v>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -2044,29 +2374,39 @@
       <c r="E67" s="3" t="inlineStr">
         <is>
           <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>RB20</t>
+          <t>RB19</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="4" t="n">
-        <v>68</v>
+      <c r="C68" s="8" t="n">
+        <v>99</v>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>James Conner</t>
+          <t>Aaron Jones</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>ARI (11)</t>
+          <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2419,7 @@
       <c r="B69" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="6" t="n">
+      <c r="C69" s="4" t="n">
         <v>89</v>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -2092,165 +2432,205 @@
           <t>GB (10)</t>
         </is>
       </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="10" t="inlineStr">
-        <is>
-          <t>TE5</t>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RB20</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="C70" s="4" t="n">
-        <v>61</v>
+      <c r="C70" s="6" t="n">
+        <v>68</v>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>Dalton Kincaid</t>
+          <t>James Conner</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="inlineStr">
-        <is>
-          <t>WR35</t>
+      <c r="A71" s="10" t="inlineStr">
+        <is>
+          <t>TE5</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="4" t="n">
-        <v>65</v>
+      <c r="C71" s="6" t="n">
+        <v>61</v>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>Dalton Kincaid</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>WR36</t>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RB21</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="9" t="n">
-        <v>59</v>
+      <c r="C72" s="11" t="n">
+        <v>55</v>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>Rashee Rice</t>
+          <t>David Montgomery</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>KC (6)</t>
+          <t>DET (5)</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>RB21</t>
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>WR36</t>
         </is>
       </c>
       <c r="B73" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="C73" s="11" t="n">
-        <v>55</v>
+      <c r="C73" s="6" t="n">
+        <v>65</v>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>David Montgomery</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>DET (5)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="inlineStr">
-        <is>
-          <t>TE6</t>
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RB22</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="8" t="n">
-        <v>95</v>
+      <c r="C74" s="6" t="n">
+        <v>67</v>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>Evan Engram</t>
+          <t>Najee Harris</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>JAC (12)</t>
+          <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>RB22</t>
+          <t>RB23</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
         <v>74</v>
       </c>
       <c r="C75" s="8" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>D'Andre Swift</t>
+          <t>Zamir White</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>RB23</t>
+          <t>RB24</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="C76" s="4" t="n">
-        <v>67</v>
+      <c r="C76" s="8" t="n">
+        <v>103</v>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>Najee Harris</t>
+          <t>D'Andre Swift</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>PIT (9)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2643,7 @@
       <c r="B77" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="6" t="n">
+      <c r="C77" s="4" t="n">
         <v>118</v>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -2276,50 +2656,65 @@
           <t>SF (9)</t>
         </is>
       </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>RB24</t>
+      <c r="A78" s="10" t="inlineStr">
+        <is>
+          <t>TE6</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
         <v>77</v>
       </c>
       <c r="C78" s="8" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>Zamir White</t>
+          <t>Evan Engram</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>LV (10)</t>
+          <t>JAC (12)</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>RB25</t>
+      <c r="A79" s="7" t="inlineStr">
+        <is>
+          <t>QB12</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
         <v>78</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>Jaylen Warren</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>PIT (9)</t>
+          <t>WAS (14)</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2727,7 @@
       <c r="B80" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="C80" s="4" t="n">
+      <c r="C80" s="6" t="n">
         <v>85</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2345,27 +2740,37 @@
           <t>GB (10)</t>
         </is>
       </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="inlineStr">
-        <is>
-          <t>WR38</t>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RB25</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="11" t="n">
-        <v>60</v>
+      <c r="C81" s="6" t="n">
+        <v>80</v>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>Hollywood Brown</t>
+          <t>Jaylen Warren</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>KC (6)</t>
+          <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -2391,96 +2796,121 @@
           <t>ATL (12)</t>
         </is>
       </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="inlineStr">
-        <is>
-          <t>QB12</t>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>RB26</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
         <v>82</v>
       </c>
       <c r="C83" s="6" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>Raheem Mostert</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>WAS (14)</t>
+          <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="inlineStr">
-        <is>
-          <t>WR39</t>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RB27</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
         <v>83</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>DeAndre Hopkins</t>
+          <t>Javonte Williams</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>RB26</t>
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>WR38</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="C85" s="4" t="n">
-        <v>79</v>
+      <c r="C85" s="6" t="n">
+        <v>73</v>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>Raheem Mostert</t>
+          <t>Jaxon Smith-Njigba</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>MIA (6)</t>
+          <t>SEA (10)</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>RB27</t>
+      <c r="A86" s="10" t="inlineStr">
+        <is>
+          <t>TE8</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="C86" s="8" t="n">
-        <v>108</v>
+      <c r="C86" s="9" t="n">
+        <v>70</v>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Tony Pollard</t>
+          <t>George Kittle</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>SF (9)</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2923,7 @@
       <c r="B87" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="C87" s="6" t="n">
+      <c r="C87" s="4" t="n">
         <v>121</v>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -2506,63 +2936,78 @@
           <t>MIA (6)</t>
         </is>
       </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="10" t="inlineStr">
-        <is>
-          <t>TE8</t>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RB28</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="C88" s="9" t="n">
-        <v>70</v>
+      <c r="C88" s="8" t="n">
+        <v>108</v>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>George Kittle</t>
+          <t>Tony Pollard</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>SF (9)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="inlineStr">
-        <is>
-          <t>WR40</t>
+      <c r="A89" s="7" t="inlineStr">
+        <is>
+          <t>QB14</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="C89" s="9" t="n">
-        <v>73</v>
+      <c r="C89" s="6" t="n">
+        <v>90</v>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>Jaxon Smith-Njigba</t>
+          <t>Caleb Williams</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>SEA (10)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>QB14</t>
+          <t>QB15</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="C90" s="6" t="n">
+      <c r="C90" s="4" t="n">
         <v>135</v>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -2575,50 +3020,65 @@
           <t>DET (5)</t>
         </is>
       </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>RB28</t>
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>WR39</t>
         </is>
       </c>
       <c r="B91" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="C91" s="4" t="n">
-        <v>97</v>
+      <c r="C91" s="6" t="n">
+        <v>93</v>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>Javonte Williams</t>
+          <t>DeAndre Hopkins</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="inlineStr">
-        <is>
-          <t>QB15</t>
+      <c r="A92" s="10" t="inlineStr">
+        <is>
+          <t>TE9</t>
         </is>
       </c>
       <c r="B92" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="C92" s="4" t="n">
-        <v>90</v>
+      <c r="C92" s="6" t="n">
+        <v>82</v>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>Caleb Williams</t>
+          <t>Jake Ferguson</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -2631,40 +3091,50 @@
       <c r="B93" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="C93" s="6" t="n">
-        <v>107</v>
+      <c r="C93" s="8" t="n">
+        <v>116</v>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>Tyjae Spears</t>
+          <t>Brian Robinson</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>WAS (14)</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="10" t="inlineStr">
-        <is>
-          <t>TE9</t>
+      <c r="A94" s="7" t="inlineStr">
+        <is>
+          <t>QB16</t>
         </is>
       </c>
       <c r="B94" s="3" t="n">
         <v>93</v>
       </c>
       <c r="C94" s="4" t="n">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>Jake Ferguson</t>
+          <t>Trevor Lawrence</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>DAL (7)</t>
+          <t>JAC (12)</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -2690,80 +3160,100 @@
           <t>CLE (10)</t>
         </is>
       </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="inlineStr">
-        <is>
-          <t>WR41</t>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RB30</t>
         </is>
       </c>
       <c r="B96" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C96" s="4" t="n">
-        <v>87</v>
+      <c r="C96" s="6" t="n">
+        <v>107</v>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>Jordan Addison</t>
+          <t>Tyjae Spears</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>MIN (6)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>RB30</t>
+          <t>RB31</t>
         </is>
       </c>
       <c r="B97" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="C97" s="8" t="n">
-        <v>116</v>
+      <c r="C97" s="6" t="n">
+        <v>102</v>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>Brian Robinson</t>
+          <t>Devin Singletary</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>WAS (14)</t>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="inlineStr">
-        <is>
-          <t>QB16</t>
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>WR40</t>
         </is>
       </c>
       <c r="B98" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="C98" s="6" t="n">
-        <v>120</v>
+      <c r="C98" s="11" t="n">
+        <v>76</v>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>Trevor Lawrence</t>
+          <t>Ladd McConkey</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>JAC (12)</t>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>WR42</t>
+          <t>WR41</t>
         </is>
       </c>
       <c r="B99" s="3" t="n">
@@ -2782,11 +3272,16 @@
           <t>KC (6)</t>
         </is>
       </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>WR43</t>
+          <t>WR42</t>
         </is>
       </c>
       <c r="B100" s="3" t="n">
@@ -2805,50 +3300,65 @@
           <t>DEN (14)</t>
         </is>
       </c>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>WR44</t>
+          <t>WR43</t>
         </is>
       </c>
       <c r="B101" s="3" t="n">
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>Ladd McConkey</t>
+          <t>Hollywood Brown</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>LAC (5)</t>
+          <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7" t="inlineStr">
-        <is>
-          <t>QB17</t>
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>WR44</t>
         </is>
       </c>
       <c r="B102" s="3" t="n">
         <v>101</v>
       </c>
       <c r="C102" s="6" t="n">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>Justin Herbert</t>
+          <t>Jordan Addison</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>LAC (5)</t>
+          <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -2861,196 +3371,236 @@
       <c r="B103" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C103" s="9" t="n">
-        <v>86</v>
+      <c r="C103" s="11" t="n">
+        <v>72</v>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>Christian Watson</t>
+          <t>Rome Odunze</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>GB (10)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>RB31</t>
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>WR46</t>
         </is>
       </c>
       <c r="B104" s="3" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="8" t="n">
-        <v>132</v>
+      <c r="C104" s="9" t="n">
+        <v>86</v>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>Austin Ekeler</t>
+          <t>Christian Watson</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>WAS (14)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>RB32</t>
+      <c r="A105" s="10" t="inlineStr">
+        <is>
+          <t>TE11</t>
         </is>
       </c>
       <c r="B105" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="4" t="n">
-        <v>102</v>
+      <c r="C105" s="6" t="n">
+        <v>105</v>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>Devin Singletary</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>NYG (11)</t>
+          <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="10" t="inlineStr">
         <is>
-          <t>TE11</t>
+          <t>TE12</t>
         </is>
       </c>
       <c r="B106" s="3" t="n">
         <v>105</v>
       </c>
-      <c r="C106" s="4" t="n">
-        <v>105</v>
+      <c r="C106" s="6" t="n">
+        <v>104</v>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>Dallas Goedert</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>PHI (5)</t>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="inlineStr">
-        <is>
-          <t>WR46</t>
+      <c r="A107" s="7" t="inlineStr">
+        <is>
+          <t>QB17</t>
         </is>
       </c>
       <c r="B107" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="C107" s="11" t="n">
-        <v>72</v>
+      <c r="C107" s="4" t="n">
+        <v>169</v>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>Rome Odunze</t>
+          <t>Kirk Cousins</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>ATL (12)</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="inlineStr">
-        <is>
-          <t>WR47</t>
+      <c r="A108" s="7" t="inlineStr">
+        <is>
+          <t>QB18</t>
         </is>
       </c>
       <c r="B108" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="C108" s="8" t="n">
-        <v>126</v>
+      <c r="C108" s="4" t="n">
+        <v>145</v>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>Tyler Lockett</t>
+          <t>Justin Herbert</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>SEA (10)</t>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="10" t="inlineStr">
-        <is>
-          <t>TE12</t>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RB32</t>
         </is>
       </c>
       <c r="B109" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="C109" s="4" t="n">
-        <v>104</v>
+      <c r="C109" s="8" t="n">
+        <v>132</v>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>Austin Ekeler</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>LV (10)</t>
+          <t>WAS (14)</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="inlineStr">
-        <is>
-          <t>QB18</t>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RB33</t>
         </is>
       </c>
       <c r="B110" s="3" t="n">
         <v>109</v>
       </c>
-      <c r="C110" s="6" t="n">
-        <v>169</v>
+      <c r="C110" s="11" t="n">
+        <v>83</v>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>Kirk Cousins</t>
+          <t>Zack Moss</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>ATL (12)</t>
+          <t>CIN (12)</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>RB33</t>
+          <t>RB34</t>
         </is>
       </c>
       <c r="B111" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="C111" s="11" t="n">
-        <v>83</v>
+      <c r="C111" s="6" t="n">
+        <v>117</v>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>Zack Moss</t>
+          <t>Chase Brown</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -3058,50 +3608,65 @@
           <t>CIN (12)</t>
         </is>
       </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="7" t="inlineStr">
-        <is>
-          <t>QB19</t>
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>WR47</t>
         </is>
       </c>
       <c r="B112" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="C112" s="4" t="n">
-        <v>119</v>
+      <c r="C112" s="6" t="n">
+        <v>126</v>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>Matthew Stafford</t>
+          <t>Tyler Lockett</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>LAR (6)</t>
+          <t>SEA (10)</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>RB34</t>
+      <c r="A113" s="7" t="inlineStr">
+        <is>
+          <t>QB19</t>
         </is>
       </c>
       <c r="B113" s="3" t="n">
         <v>112</v>
       </c>
-      <c r="C113" s="4" t="n">
-        <v>117</v>
+      <c r="C113" s="6" t="n">
+        <v>119</v>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>Chase Brown</t>
+          <t>Matthew Stafford</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>CIN (12)</t>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3679,7 @@
       <c r="B114" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="C114" s="4" t="n">
+      <c r="C114" s="6" t="n">
         <v>122</v>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -3125,6 +3690,11 @@
       <c r="E114" s="3" t="inlineStr">
         <is>
           <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3707,7 @@
       <c r="B115" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="C115" s="4" t="n">
+      <c r="C115" s="6" t="n">
         <v>127</v>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -3150,50 +3720,65 @@
           <t>LV (10)</t>
         </is>
       </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>RB35</t>
+      <c r="A116" s="5" t="inlineStr">
+        <is>
+          <t>WR49</t>
         </is>
       </c>
       <c r="B116" s="3" t="n">
         <v>115</v>
       </c>
-      <c r="C116" s="4" t="n">
-        <v>100</v>
+      <c r="C116" s="11" t="n">
+        <v>63</v>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>Jonathon Brooks</t>
+          <t>Brian Thomas</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>CAR (11)</t>
+          <t>JAC (12)</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>WR49</t>
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RB35</t>
         </is>
       </c>
       <c r="B117" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="C117" s="11" t="n">
-        <v>92</v>
+      <c r="C117" s="6" t="n">
+        <v>100</v>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>Curtis Samuel</t>
+          <t>Jonathon Brooks</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -3219,6 +3804,11 @@
           <t>HOU (14)</t>
         </is>
       </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
@@ -3229,40 +3819,50 @@
       <c r="B119" s="3" t="n">
         <v>118</v>
       </c>
-      <c r="C119" s="8" t="n">
-        <v>146</v>
+      <c r="C119" s="6" t="n">
+        <v>131</v>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>Ezekiel Elliott</t>
+          <t>Jerome Ford</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>DAL (7)</t>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="10" t="inlineStr">
-        <is>
-          <t>TE15</t>
+      <c r="A120" s="7" t="inlineStr">
+        <is>
+          <t>QB20</t>
         </is>
       </c>
       <c r="B120" s="3" t="n">
         <v>119</v>
       </c>
-      <c r="C120" s="8" t="n">
-        <v>151</v>
+      <c r="C120" s="4" t="n">
+        <v>147</v>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>T.J. Hockenson</t>
+          <t>Aaron Rodgers</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>MIN (6)</t>
+          <t>NYJ (12)</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3875,7 @@
       <c r="B121" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="C121" s="4" t="n">
+      <c r="C121" s="6" t="n">
         <v>110</v>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -3288,73 +3888,93 @@
           <t>DET (5)</t>
         </is>
       </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="7" t="inlineStr">
-        <is>
-          <t>QB20</t>
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>WR51</t>
         </is>
       </c>
       <c r="B122" s="3" t="n">
         <v>121</v>
       </c>
-      <c r="C122" s="6" t="n">
-        <v>147</v>
+      <c r="C122" s="11" t="n">
+        <v>91</v>
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t>Aaron Rodgers</t>
+          <t>Keon Coleman</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>NYJ (12)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="inlineStr">
-        <is>
-          <t>WR51</t>
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RB37</t>
         </is>
       </c>
       <c r="B123" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="C123" s="11" t="n">
-        <v>63</v>
+      <c r="C123" s="8" t="n">
+        <v>146</v>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>Brian Thomas</t>
+          <t>Ezekiel Elliott</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>JAC (12)</t>
+          <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>RB37</t>
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>WR52</t>
         </is>
       </c>
       <c r="B124" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="C124" s="4" t="n">
-        <v>131</v>
+      <c r="C124" s="11" t="n">
+        <v>92</v>
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t>Jerome Ford</t>
+          <t>Curtis Samuel</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>CLE (10)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -3367,70 +3987,85 @@
       <c r="B125" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="C125" s="8" t="n">
-        <v>165</v>
+      <c r="C125" s="6" t="n">
+        <v>115</v>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>Nick Chubb</t>
+          <t>Gus Edwards</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>CLE (10)</t>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>RB39</t>
+      <c r="A126" s="7" t="inlineStr">
+        <is>
+          <t>QB21</t>
         </is>
       </c>
       <c r="B126" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="C126" s="4" t="n">
-        <v>115</v>
+      <c r="C126" s="6" t="n">
+        <v>129</v>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>Gus Edwards</t>
+          <t>Deshaun Watson</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>LAC (5)</t>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="inlineStr">
-        <is>
-          <t>QB21</t>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RB39</t>
         </is>
       </c>
       <c r="B127" s="3" t="n">
         <v>126</v>
       </c>
-      <c r="C127" s="4" t="n">
-        <v>129</v>
+      <c r="C127" s="8" t="n">
+        <v>165</v>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>Deshaun Watson</t>
+          <t>Nick Chubb</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
           <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="inlineStr">
         <is>
-          <t>WR52</t>
+          <t>WR53</t>
         </is>
       </c>
       <c r="B128" s="3" t="n">
@@ -3449,86 +4084,106 @@
           <t>LAC (5)</t>
         </is>
       </c>
+      <c r="F128" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>RB40</t>
+      <c r="A129" s="10" t="inlineStr">
+        <is>
+          <t>TE15</t>
         </is>
       </c>
       <c r="B129" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="C129" s="4" t="n">
-        <v>130</v>
+      <c r="C129" s="8" t="n">
+        <v>151</v>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Zach Charbonnet</t>
+          <t>T.J. Hockenson</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>SEA (10)</t>
+          <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="10" t="inlineStr">
-        <is>
-          <t>TE16</t>
+      <c r="A130" s="5" t="inlineStr">
+        <is>
+          <t>WR54</t>
         </is>
       </c>
       <c r="B130" s="3" t="n">
         <v>129</v>
       </c>
-      <c r="C130" s="8" t="n">
-        <v>190</v>
+      <c r="C130" s="9" t="n">
+        <v>109</v>
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t>Cole Kmet</t>
+          <t>Romeo Doubs</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="7" t="inlineStr">
-        <is>
-          <t>QB22</t>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RB40</t>
         </is>
       </c>
       <c r="B131" s="3" t="n">
         <v>130</v>
       </c>
       <c r="C131" s="6" t="n">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Zach Charbonnet</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>SEA (10)</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="inlineStr">
         <is>
-          <t>QB23</t>
+          <t>QB22</t>
         </is>
       </c>
       <c r="B132" s="3" t="n">
         <v>131</v>
       </c>
-      <c r="C132" s="4" t="n">
+      <c r="C132" s="6" t="n">
         <v>136</v>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -3541,96 +4196,121 @@
           <t>SEA (10)</t>
         </is>
       </c>
+      <c r="F132" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="5" t="inlineStr">
-        <is>
-          <t>WR53</t>
+      <c r="A133" s="7" t="inlineStr">
+        <is>
+          <t>QB23</t>
         </is>
       </c>
       <c r="B133" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="C133" s="11" t="n">
-        <v>91</v>
+      <c r="C133" s="4" t="n">
+        <v>185</v>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>Keon Coleman</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>WR54</t>
+          <t>WR55</t>
         </is>
       </c>
       <c r="B134" s="3" t="n">
         <v>133</v>
       </c>
       <c r="C134" s="9" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t>Romeo Doubs</t>
+          <t>Rashid Shaheed</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>GB (10)</t>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>WR55</t>
+          <t>WR56</t>
         </is>
       </c>
       <c r="B135" s="3" t="n">
         <v>134</v>
       </c>
       <c r="C135" s="9" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>Rashid Shaheed</t>
+          <t>Brandin Cooks</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="inlineStr">
-        <is>
-          <t>WR56</t>
+      <c r="A136" s="10" t="inlineStr">
+        <is>
+          <t>TE16</t>
         </is>
       </c>
       <c r="B136" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="C136" s="9" t="n">
-        <v>113</v>
+      <c r="C136" s="8" t="n">
+        <v>190</v>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>Brandin Cooks</t>
+          <t>Cole Kmet</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>DAL (7)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -3643,70 +4323,85 @@
       <c r="B137" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="C137" s="4" t="n">
-        <v>134</v>
+      <c r="C137" s="6" t="n">
+        <v>138</v>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>Trey Benson</t>
+          <t>Chuba Hubbard</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>ARI (11)</t>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>RB42</t>
+      <c r="A138" s="5" t="inlineStr">
+        <is>
+          <t>WR57</t>
         </is>
       </c>
       <c r="B138" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="C138" s="4" t="n">
-        <v>138</v>
+      <c r="C138" s="8" t="n">
+        <v>154</v>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>Chuba Hubbard</t>
+          <t>Josh Downs</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>CAR (11)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F138" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="5" t="inlineStr">
         <is>
-          <t>WR57</t>
+          <t>WR58</t>
         </is>
       </c>
       <c r="B139" s="3" t="n">
         <v>138</v>
       </c>
-      <c r="C139" s="4" t="n">
-        <v>154</v>
+      <c r="C139" s="6" t="n">
+        <v>124</v>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>Josh Downs</t>
+          <t>Khalil Shakir</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>WR58</t>
+          <t>WR59</t>
         </is>
       </c>
       <c r="B140" s="3" t="n">
@@ -3725,27 +4420,37 @@
           <t>NYJ (12)</t>
         </is>
       </c>
+      <c r="F140" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="7" t="inlineStr">
-        <is>
-          <t>QB24</t>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RB42</t>
         </is>
       </c>
       <c r="B141" s="3" t="n">
         <v>140</v>
       </c>
       <c r="C141" s="6" t="n">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>Will Levis</t>
+          <t>Trey Benson</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -3771,280 +4476,345 @@
           <t>LAR (6)</t>
         </is>
       </c>
+      <c r="F142" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>RB44</t>
+      <c r="A143" s="10" t="inlineStr">
+        <is>
+          <t>TE17</t>
         </is>
       </c>
       <c r="B143" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="C143" s="8" t="n">
-        <v>176</v>
+      <c r="C143" s="6" t="n">
+        <v>137</v>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>Antonio Gibson</t>
+          <t>Luke Musgrave</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>NE (14)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="10" t="inlineStr">
-        <is>
-          <t>TE17</t>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RB44</t>
         </is>
       </c>
       <c r="B144" s="3" t="n">
         <v>143</v>
       </c>
-      <c r="C144" s="4" t="n">
-        <v>137</v>
+      <c r="C144" s="8" t="n">
+        <v>176</v>
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t>Luke Musgrave</t>
+          <t>Antonio Gibson</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>GB (10)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F144" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="inlineStr">
-        <is>
-          <t>WR59</t>
+      <c r="A145" s="7" t="inlineStr">
+        <is>
+          <t>QB24</t>
         </is>
       </c>
       <c r="B145" s="3" t="n">
         <v>144</v>
       </c>
       <c r="C145" s="4" t="n">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>Khalil Shakir</t>
+          <t>Will Levis</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="5" t="inlineStr">
-        <is>
-          <t>WR60</t>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RB45</t>
         </is>
       </c>
       <c r="B146" s="3" t="n">
         <v>145</v>
       </c>
       <c r="C146" s="11" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>Jerry Jeudy</t>
+          <t>Rico Dowdle</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>CLE (10)</t>
+          <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F146" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>RB45</t>
+      <c r="A147" s="5" t="inlineStr">
+        <is>
+          <t>WR60</t>
         </is>
       </c>
       <c r="B147" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="C147" s="4" t="n">
-        <v>139</v>
+      <c r="C147" s="11" t="n">
+        <v>114</v>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>Ty Chandler</t>
+          <t>Jerry Jeudy</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>MIN (6)</t>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="10" t="inlineStr">
-        <is>
-          <t>TE18</t>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RB46</t>
         </is>
       </c>
       <c r="B148" s="3" t="n">
         <v>147</v>
       </c>
-      <c r="C148" s="4" t="n">
-        <v>142</v>
+      <c r="C148" s="8" t="n">
+        <v>178</v>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t>Hunter Henry</t>
+          <t>Jaleel McLaughlin</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>NE (14)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F148" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>RB46</t>
+      <c r="A149" s="10" t="inlineStr">
+        <is>
+          <t>TE18</t>
         </is>
       </c>
       <c r="B149" s="3" t="n">
         <v>148</v>
       </c>
-      <c r="C149" s="8" t="n">
-        <v>178</v>
+      <c r="C149" s="6" t="n">
+        <v>142</v>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>Jaleel McLaughlin</t>
+          <t>Hunter Henry</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="inlineStr">
-        <is>
-          <t>WR61</t>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RB47</t>
         </is>
       </c>
       <c r="B150" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="C150" s="4" t="n">
-        <v>148</v>
+      <c r="C150" s="6" t="n">
+        <v>139</v>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>Jahan Dotson</t>
+          <t>Ty Chandler</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>WAS (14)</t>
+          <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F150" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>RB47</t>
+          <t>RB48</t>
         </is>
       </c>
       <c r="B151" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="C151" s="11" t="n">
-        <v>96</v>
+      <c r="C151" s="6" t="n">
+        <v>133</v>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>Rico Dowdle</t>
+          <t>Tyler Allgeier</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>DAL (7)</t>
+          <t>ATL (12)</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>RB48</t>
+      <c r="A152" s="5" t="inlineStr">
+        <is>
+          <t>WR61</t>
         </is>
       </c>
       <c r="B152" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="C152" s="8" t="n">
-        <v>276</v>
+      <c r="C152" s="6" t="n">
+        <v>148</v>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>Kendre Miller</t>
+          <t>Jahan Dotson</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>WAS (14)</t>
+        </is>
+      </c>
+      <c r="F152" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="inlineStr">
-        <is>
-          <t>WR62</t>
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>RB49</t>
         </is>
       </c>
       <c r="B153" s="3" t="n">
         <v>152</v>
       </c>
-      <c r="C153" s="9" t="n">
-        <v>123</v>
+      <c r="C153" s="6" t="n">
+        <v>163</v>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>Gabe Davis</t>
+          <t>J.K. Dobbins</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>JAC (12)</t>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>RB49</t>
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>WR62</t>
         </is>
       </c>
       <c r="B154" s="3" t="n">
         <v>153</v>
       </c>
-      <c r="C154" s="4" t="n">
-        <v>133</v>
+      <c r="C154" s="6" t="n">
+        <v>152</v>
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t>Tyler Allgeier</t>
+          <t>Adam Thielen</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>ATL (12)</t>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F154" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -4057,17 +4827,22 @@
       <c r="B155" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="C155" s="4" t="n">
-        <v>152</v>
+      <c r="C155" s="11" t="n">
+        <v>123</v>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>Adam Thielen</t>
+          <t>Gabe Davis</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>CAR (11)</t>
+          <t>JAC (12)</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -4081,131 +4856,161 @@
         <v>155</v>
       </c>
       <c r="C156" s="6" t="n">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>Derek Carr</t>
+          <t>Daniel Jones</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F156" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="7" t="inlineStr">
-        <is>
-          <t>QB26</t>
+      <c r="A157" s="5" t="inlineStr">
+        <is>
+          <t>WR64</t>
         </is>
       </c>
       <c r="B157" s="3" t="n">
-        <v>156</v>
-      </c>
-      <c r="C157" s="4" t="n">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="C157" s="8" t="n">
+        <v>180</v>
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>Daniel Jones</t>
+          <t>Demario Douglas</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>NYG (11)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>RB50</t>
+      <c r="A158" s="5" t="inlineStr">
+        <is>
+          <t>WR65</t>
         </is>
       </c>
       <c r="B158" s="3" t="n">
-        <v>157</v>
-      </c>
-      <c r="C158" s="4" t="n">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>125</v>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>Khalil Herbert</t>
+          <t>Dontayvion Wicks</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F158" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>RB51</t>
+          <t>RB50</t>
         </is>
       </c>
       <c r="B159" s="3" t="n">
-        <v>158</v>
-      </c>
-      <c r="C159" s="4" t="n">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="C159" s="6" t="n">
+        <v>161</v>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>J.K. Dobbins</t>
+          <t>Khalil Herbert</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>LAC (5)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="inlineStr">
-        <is>
-          <t>WR64</t>
+      <c r="A160" s="7" t="inlineStr">
+        <is>
+          <t>QB26</t>
         </is>
       </c>
       <c r="B160" s="3" t="n">
-        <v>159</v>
-      </c>
-      <c r="C160" s="8" t="n">
-        <v>180</v>
+        <v>160</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>207</v>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>Demario Douglas</t>
+          <t>Derek Carr</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>NE (14)</t>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F160" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>RB52</t>
+          <t>RB51</t>
         </is>
       </c>
       <c r="B161" s="3" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" s="8" t="n">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>Roschon Johnson</t>
+          <t>Kendre Miller</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F161" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -4216,9 +5021,9 @@
         </is>
       </c>
       <c r="B162" s="3" t="n">
-        <v>161</v>
-      </c>
-      <c r="C162" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="C162" s="6" t="n">
         <v>143</v>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -4231,188 +5036,233 @@
           <t>NYJ (12)</t>
         </is>
       </c>
+      <c r="F162" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t>WR65</t>
+      <c r="A163" s="7" t="inlineStr">
+        <is>
+          <t>QB27</t>
         </is>
       </c>
       <c r="B163" s="3" t="n">
-        <v>162</v>
-      </c>
-      <c r="C163" s="11" t="n">
-        <v>125</v>
+        <v>164</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>191</v>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Dontayvion Wicks</t>
+          <t>Bryce Young</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>GB (10)</t>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>RB53</t>
+      <c r="A164" s="10" t="inlineStr">
+        <is>
+          <t>TE20</t>
         </is>
       </c>
       <c r="B164" s="3" t="n">
-        <v>163</v>
-      </c>
-      <c r="C164" s="4" t="n">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="C164" s="8" t="n">
+        <v>209</v>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>MarShawn Lloyd</t>
+          <t>Cade Otton</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>GB (10)</t>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F164" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="10" t="inlineStr">
-        <is>
-          <t>TE20</t>
+      <c r="A165" s="5" t="inlineStr">
+        <is>
+          <t>WR66</t>
         </is>
       </c>
       <c r="B165" s="3" t="n">
-        <v>165</v>
-      </c>
-      <c r="C165" s="8" t="n">
-        <v>209</v>
+        <v>167</v>
+      </c>
+      <c r="C165" s="9" t="n">
+        <v>141</v>
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>Cade Otton</t>
+          <t>Darnell Mooney</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>ATL (12)</t>
+        </is>
+      </c>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="5" t="inlineStr">
         <is>
-          <t>WR66</t>
+          <t>WR67</t>
         </is>
       </c>
       <c r="B166" s="3" t="n">
-        <v>166</v>
-      </c>
-      <c r="C166" s="4" t="n">
-        <v>181</v>
+        <v>168</v>
+      </c>
+      <c r="C166" s="6" t="n">
+        <v>153</v>
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>Wan'Dale Robinson</t>
+          <t>Michael Wilson</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>NYG (11)</t>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="5" t="inlineStr">
         <is>
-          <t>WR67</t>
+          <t>WR68</t>
         </is>
       </c>
       <c r="B167" s="3" t="n">
-        <v>167</v>
-      </c>
-      <c r="C167" s="4" t="n">
-        <v>153</v>
+        <v>169</v>
+      </c>
+      <c r="C167" s="11" t="n">
+        <v>128</v>
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>Michael Wilson</t>
+          <t>Adonai Mitchell</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>ARI (11)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="7" t="inlineStr">
-        <is>
-          <t>QB27</t>
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>RB52</t>
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>168</v>
-      </c>
-      <c r="C168" s="4" t="n">
-        <v>191</v>
+        <v>170</v>
+      </c>
+      <c r="C168" s="6" t="n">
+        <v>164</v>
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>Bryce Young</t>
+          <t>MarShawn Lloyd</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>CAR (11)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F168" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="5" t="inlineStr">
         <is>
-          <t>WR68</t>
+          <t>WR69</t>
         </is>
       </c>
       <c r="B169" s="3" t="n">
-        <v>169</v>
-      </c>
-      <c r="C169" s="11" t="n">
-        <v>128</v>
+        <v>171</v>
+      </c>
+      <c r="C169" s="9" t="n">
+        <v>140</v>
       </c>
       <c r="D169" s="3" t="inlineStr">
         <is>
-          <t>Adonai Mitchell</t>
+          <t>Ja'Lynn Polk</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F169" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="5" t="inlineStr">
-        <is>
-          <t>WR69</t>
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>RB53</t>
         </is>
       </c>
       <c r="B170" s="3" t="n">
-        <v>171</v>
-      </c>
-      <c r="C170" s="9" t="n">
-        <v>140</v>
+        <v>174</v>
+      </c>
+      <c r="C170" s="8" t="n">
+        <v>202</v>
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
-          <t>Ja'Lynn Polk</t>
+          <t>Roschon Johnson</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>NE (14)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F170" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -4423,19 +5273,24 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
-        <v>172</v>
-      </c>
-      <c r="C171" s="4" t="n">
-        <v>149</v>
+        <v>175</v>
+      </c>
+      <c r="C171" s="6" t="n">
+        <v>181</v>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>Rashod Bateman</t>
+          <t>Wan'Dale Robinson</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>BAL (14)</t>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -4446,65 +5301,80 @@
         </is>
       </c>
       <c r="B172" s="3" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C172" s="9" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t>Darnell Mooney</t>
+          <t>Rashod Bateman</t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>ATL (12)</t>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F172" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="5" t="inlineStr">
-        <is>
-          <t>WR72</t>
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>RB54</t>
         </is>
       </c>
       <c r="B173" s="3" t="n">
-        <v>175</v>
-      </c>
-      <c r="C173" s="4" t="n">
-        <v>160</v>
+        <v>177</v>
+      </c>
+      <c r="C173" s="6" t="n">
+        <v>157</v>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>Marvin Mims</t>
+          <t>Ray Davis</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F173" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="5" t="inlineStr">
-        <is>
-          <t>WR73</t>
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>RB55</t>
         </is>
       </c>
       <c r="B174" s="3" t="n">
         <v>179</v>
       </c>
-      <c r="C174" s="8" t="n">
-        <v>260</v>
+      <c r="C174" s="6" t="n">
+        <v>179</v>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>Jaylen Wright</t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>LAC (5)</t>
+          <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F174" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -4515,9 +5385,9 @@
         </is>
       </c>
       <c r="B175" s="3" t="n">
-        <v>180</v>
-      </c>
-      <c r="C175" s="9" t="n">
+        <v>182</v>
+      </c>
+      <c r="C175" s="11" t="n">
         <v>144</v>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -4530,40 +5400,50 @@
           <t>SEA (10)</t>
         </is>
       </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>RB54</t>
+      <c r="A176" s="5" t="inlineStr">
+        <is>
+          <t>WR72</t>
         </is>
       </c>
       <c r="B176" s="3" t="n">
-        <v>181</v>
-      </c>
-      <c r="C176" s="4" t="n">
-        <v>157</v>
+        <v>183</v>
+      </c>
+      <c r="C176" s="6" t="n">
+        <v>160</v>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>Ray Davis</t>
+          <t>Marvin Mims</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F176" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="5" t="inlineStr">
         <is>
-          <t>WR74</t>
+          <t>WR73</t>
         </is>
       </c>
       <c r="B177" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="C177" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="C177" s="6" t="n">
         <v>159</v>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -4576,574 +5456,699 @@
           <t>CAR (11)</t>
         </is>
       </c>
+      <c r="F177" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="7" t="inlineStr">
+      <c r="A178" s="10" t="inlineStr">
+        <is>
+          <t>TE24</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="n">
+        <v>189</v>
+      </c>
+      <c r="C178" s="6" t="n">
+        <v>166</v>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>Juwan Johnson</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F178" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="inlineStr">
         <is>
           <t>QB28</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
-        <v>183</v>
-      </c>
-      <c r="C178" s="4" t="n">
+      <c r="B179" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="C179" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>Sam Darnold</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F179" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="inlineStr">
+        <is>
+          <t>QB29</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="n">
         <v>193</v>
       </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="C180" s="6" t="n">
+        <v>193</v>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
         <is>
           <t>Russell Wilson</t>
         </is>
       </c>
-      <c r="E178" s="3" t="inlineStr">
+      <c r="E180" s="3" t="inlineStr">
         <is>
           <t>PIT (9)</t>
         </is>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>RB55</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="n">
-        <v>184</v>
-      </c>
-      <c r="C179" s="4" t="n">
-        <v>179</v>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>Jaylen Wright</t>
-        </is>
-      </c>
-      <c r="E179" s="3" t="inlineStr">
-        <is>
-          <t>MIA (6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="10" t="inlineStr">
-        <is>
-          <t>TE23</t>
-        </is>
-      </c>
-      <c r="B180" s="3" t="n">
-        <v>187</v>
-      </c>
-      <c r="C180" s="4" t="n">
-        <v>166</v>
-      </c>
-      <c r="D180" s="3" t="inlineStr">
-        <is>
-          <t>Juwan Johnson</t>
-        </is>
-      </c>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>NO (12)</t>
+      <c r="F180" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="5" t="inlineStr">
         <is>
+          <t>WR74</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="n">
+        <v>194</v>
+      </c>
+      <c r="C181" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>Jermaine Burton</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>CIN (12)</t>
+        </is>
+      </c>
+      <c r="F181" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="inlineStr">
+        <is>
           <t>WR75</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
-        <v>191</v>
-      </c>
-      <c r="C181" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>195</v>
       </c>
-      <c r="D181" s="3" t="inlineStr">
-        <is>
-          <t>Jermaine Burton</t>
-        </is>
-      </c>
-      <c r="E181" s="3" t="inlineStr">
-        <is>
-          <t>CIN (12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
+      <c r="C182" s="8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>Quentin Johnston</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F182" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>WR76</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="n">
+        <v>197</v>
+      </c>
+      <c r="C183" s="9" t="n">
+        <v>158</v>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>Demarcus Robinson</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>RB56</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
-        <v>192</v>
-      </c>
-      <c r="C182" s="4" t="n">
+      <c r="B184" s="3" t="n">
+        <v>201</v>
+      </c>
+      <c r="C184" s="6" t="n">
         <v>204</v>
       </c>
-      <c r="D182" s="3" t="inlineStr">
+      <c r="D184" s="3" t="inlineStr">
         <is>
           <t>Elijah Mitchell</t>
         </is>
       </c>
-      <c r="E182" s="3" t="inlineStr">
+      <c r="E184" s="3" t="inlineStr">
         <is>
           <t>SF (9)</t>
         </is>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="inlineStr">
+      <c r="F184" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="10" t="inlineStr">
+        <is>
+          <t>TE25</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="n">
+        <v>202</v>
+      </c>
+      <c r="C185" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>Isaiah Likely</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F185" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>RB57</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
-        <v>193</v>
-      </c>
-      <c r="C183" s="4" t="n">
+      <c r="B186" s="3" t="n">
+        <v>203</v>
+      </c>
+      <c r="C186" s="6" t="n">
         <v>173</v>
       </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="D186" s="3" t="inlineStr">
         <is>
           <t>Dameon Pierce</t>
         </is>
       </c>
-      <c r="E183" s="3" t="inlineStr">
+      <c r="E186" s="3" t="inlineStr">
         <is>
           <t>HOU (14)</t>
         </is>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="5" t="inlineStr">
-        <is>
-          <t>WR76</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="n">
-        <v>195</v>
-      </c>
-      <c r="C184" s="9" t="n">
-        <v>158</v>
-      </c>
-      <c r="D184" s="3" t="inlineStr">
-        <is>
-          <t>Demarcus Robinson</t>
-        </is>
-      </c>
-      <c r="E184" s="3" t="inlineStr">
-        <is>
-          <t>LAR (6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="5" t="inlineStr">
+      <c r="F186" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>RB58</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>204</v>
+      </c>
+      <c r="C187" s="6" t="n">
+        <v>174</v>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>Bucky Irving</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="inlineStr">
         <is>
           <t>WR77</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
-        <v>196</v>
-      </c>
-      <c r="C185" s="4" t="n">
+      <c r="B188" s="3" t="n">
+        <v>206</v>
+      </c>
+      <c r="C188" s="6" t="n">
         <v>182</v>
       </c>
-      <c r="D185" s="3" t="inlineStr">
+      <c r="D188" s="3" t="inlineStr">
         <is>
           <t>Ricky Pearsall</t>
         </is>
       </c>
-      <c r="E185" s="3" t="inlineStr">
+      <c r="E188" s="3" t="inlineStr">
         <is>
           <t>SF (9)</t>
         </is>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="10" t="inlineStr">
-        <is>
-          <t>TE25</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="n">
-        <v>197</v>
-      </c>
-      <c r="C186" s="4" t="n">
+      <c r="F188" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="10" t="inlineStr">
+        <is>
+          <t>TE26</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="n">
+        <v>210</v>
+      </c>
+      <c r="C189" s="9" t="n">
         <v>171</v>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D189" s="3" t="inlineStr">
         <is>
           <t>Ben Sinnott</t>
         </is>
       </c>
-      <c r="E186" s="3" t="inlineStr">
+      <c r="E189" s="3" t="inlineStr">
         <is>
           <t>WAS (14)</t>
         </is>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="5" t="inlineStr">
-        <is>
-          <t>WR78</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="C187" s="6" t="n">
-        <v>264</v>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
-        <is>
-          <t>Elijah Moore</t>
-        </is>
-      </c>
-      <c r="E187" s="3" t="inlineStr">
-        <is>
-          <t>CLE (10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="10" t="inlineStr">
-        <is>
-          <t>TE26</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="n">
-        <v>204</v>
-      </c>
-      <c r="C188" s="4" t="n">
-        <v>210</v>
-      </c>
-      <c r="D188" s="3" t="inlineStr">
-        <is>
-          <t>Isaiah Likely</t>
-        </is>
-      </c>
-      <c r="E188" s="3" t="inlineStr">
-        <is>
-          <t>BAL (14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="5" t="inlineStr">
-        <is>
-          <t>WR79</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="C189" s="4" t="n">
-        <v>217</v>
-      </c>
-      <c r="D189" s="3" t="inlineStr">
-        <is>
-          <t>Roman Wilson</t>
-        </is>
-      </c>
-      <c r="E189" s="3" t="inlineStr">
-        <is>
-          <t>PIT (9)</t>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>RB58</t>
+          <t>RB59</t>
         </is>
       </c>
       <c r="B190" s="3" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C190" s="9" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>Bucky Irving</t>
+          <t>Braelon Allen</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>NYJ (12)</t>
+        </is>
+      </c>
+      <c r="F190" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="10" t="inlineStr">
-        <is>
-          <t>TE27</t>
+      <c r="A191" s="5" t="inlineStr">
+        <is>
+          <t>WR78</t>
         </is>
       </c>
       <c r="B191" s="3" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C191" s="4" t="n">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>Tucker Kraft</t>
+          <t>Elijah Moore</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>GB (10)</t>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="5" t="inlineStr">
-        <is>
-          <t>WR80</t>
+      <c r="A192" s="7" t="inlineStr">
+        <is>
+          <t>QB30</t>
         </is>
       </c>
       <c r="B192" s="3" t="n">
-        <v>208</v>
-      </c>
-      <c r="C192" s="4" t="n">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="C192" s="6" t="n">
+        <v>186</v>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>Darius Slayton</t>
+          <t>Bo Nix</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>NYG (11)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F192" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="5" t="inlineStr">
         <is>
-          <t>WR81</t>
+          <t>WR79</t>
         </is>
       </c>
       <c r="B193" s="3" t="n">
-        <v>213</v>
-      </c>
-      <c r="C193" s="6" t="n">
-        <v>269</v>
+        <v>215</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>262</v>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>Troy Franklin</t>
+          <t>Tyler Boyd</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>RB59</t>
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t>WR80</t>
         </is>
       </c>
       <c r="B194" s="3" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C194" s="4" t="n">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell</t>
+          <t>Javon Baker</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>PHI (5)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F194" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="inlineStr">
-        <is>
-          <t>WR82</t>
+      <c r="A195" s="10" t="inlineStr">
+        <is>
+          <t>TE27</t>
         </is>
       </c>
       <c r="B195" s="3" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C195" s="6" t="n">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>Javon Baker</t>
+          <t>Tucker Kraft</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>NE (14)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="5" t="inlineStr">
         <is>
-          <t>WR83</t>
+          <t>WR81</t>
         </is>
       </c>
       <c r="B196" s="3" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C196" s="6" t="n">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>Tyler Boyd</t>
+          <t>Roman Wilson</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F196" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="5" t="inlineStr">
         <is>
+          <t>WR82</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="n">
+        <v>221</v>
+      </c>
+      <c r="C197" s="6" t="n">
+        <v>222</v>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>Darius Slayton</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F197" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="inlineStr">
+        <is>
+          <t>WR83</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="C198" s="6" t="n">
+        <v>194</v>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>Jalin Hyatt</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F198" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>RB60</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="n">
+        <v>223</v>
+      </c>
+      <c r="C199" s="6" t="n">
+        <v>199</v>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>Alexander Mattison</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="inlineStr">
+        <is>
           <t>WR84</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="C197" s="4" t="n">
-        <v>194</v>
-      </c>
-      <c r="D197" s="3" t="inlineStr">
-        <is>
-          <t>Jalin Hyatt</t>
-        </is>
-      </c>
-      <c r="E197" s="3" t="inlineStr">
-        <is>
-          <t>NYG (11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>RB60</t>
-        </is>
-      </c>
-      <c r="B198" s="3" t="n">
-        <v>221</v>
-      </c>
-      <c r="C198" s="4" t="n">
-        <v>199</v>
-      </c>
-      <c r="D198" s="3" t="inlineStr">
-        <is>
-          <t>Alexander Mattison</t>
-        </is>
-      </c>
-      <c r="E198" s="3" t="inlineStr">
-        <is>
-          <t>LV (10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="10" t="inlineStr">
-        <is>
-          <t>TE28</t>
-        </is>
-      </c>
-      <c r="B199" s="3" t="n">
-        <v>222</v>
-      </c>
-      <c r="C199" s="4" t="n">
-        <v>245</v>
-      </c>
-      <c r="D199" s="3" t="inlineStr">
-        <is>
-          <t>Mike Gesicki</t>
-        </is>
-      </c>
-      <c r="E199" s="3" t="inlineStr">
-        <is>
-          <t>CIN (12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>RB61</t>
-        </is>
-      </c>
       <c r="B200" s="3" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C200" s="4" t="n">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>Kimani Vidal</t>
+          <t>Troy Franklin</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>LAC (5)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
+          <t>RB61</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="C201" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>Kenneth Gainwell</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
           <t>RB62</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
-        <v>224</v>
-      </c>
-      <c r="C201" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
-        <is>
-          <t>AJ Dillon</t>
-        </is>
-      </c>
-      <c r="E201" s="3" t="inlineStr">
-        <is>
-          <t>GB (10)</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="7" t="inlineStr">
-        <is>
-          <t>QB29</t>
-        </is>
-      </c>
       <c r="B202" s="3" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C202" s="9" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>Bo Nix</t>
+          <t>Audric Estime</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
@@ -5151,27 +6156,37 @@
           <t>DEN (14)</t>
         </is>
       </c>
+      <c r="F202" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="7" t="inlineStr">
-        <is>
-          <t>QB30</t>
+      <c r="A203" s="10" t="inlineStr">
+        <is>
+          <t>TE28</t>
         </is>
       </c>
       <c r="B203" s="3" t="n">
-        <v>226</v>
-      </c>
-      <c r="C203" s="4" t="n">
-        <v>208</v>
+        <v>227</v>
+      </c>
+      <c r="C203" s="6" t="n">
+        <v>245</v>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>J.J. McCarthy</t>
+          <t>Mike Gesicki</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr">
         <is>
-          <t>MIN (6)</t>
+          <t>CIN (12)</t>
+        </is>
+      </c>
+      <c r="F203" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -5182,19 +6197,24 @@
         </is>
       </c>
       <c r="B204" s="3" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C204" s="6" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>Miles Sanders</t>
+          <t>AJ Dillon</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>CAR (11)</t>
+          <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F204" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -5205,19 +6225,24 @@
         </is>
       </c>
       <c r="B205" s="3" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C205" s="6" t="n">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Keaton Mitchell</t>
+          <t>Justice Hill</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr">
         <is>
           <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -5228,19 +6253,24 @@
         </is>
       </c>
       <c r="B206" s="3" t="n">
-        <v>230</v>
-      </c>
-      <c r="C206" s="6" t="n">
-        <v>278</v>
+        <v>231</v>
+      </c>
+      <c r="C206" s="9" t="n">
+        <v>172</v>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>D'Onta Foreman</t>
+          <t>Clyde Edwards-Helaire</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>CLE (10)</t>
+          <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F206" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -5251,226 +6281,276 @@
         </is>
       </c>
       <c r="B207" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="C207" s="9" t="n">
-        <v>155</v>
+        <v>232</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>280</v>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t>Braelon Allen</t>
+          <t>Miles Sanders</t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="7" t="inlineStr">
+        <is>
+          <t>QB31</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>234</v>
+      </c>
+      <c r="C208" s="6" t="n">
+        <v>206</v>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>Justin Fields</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F208" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>RB67</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="n">
+        <v>235</v>
+      </c>
+      <c r="C209" s="4" t="n">
+        <v>278</v>
+      </c>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>D'Onta Foreman</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="10" t="inlineStr">
+        <is>
+          <t>TE29</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>237</v>
+      </c>
+      <c r="C210" s="6" t="n">
+        <v>246</v>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>Michael Mayer</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F210" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="inlineStr">
+        <is>
+          <t>WR85</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>238</v>
+      </c>
+      <c r="C211" s="6" t="n">
+        <v>239</v>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>Malachi Corley</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
           <t>NYJ (12)</t>
         </is>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>RB67</t>
-        </is>
-      </c>
-      <c r="B208" s="3" t="n">
-        <v>232</v>
-      </c>
-      <c r="C208" s="9" t="n">
-        <v>177</v>
-      </c>
-      <c r="D208" s="3" t="inlineStr">
-        <is>
-          <t>Audric Estime</t>
-        </is>
-      </c>
-      <c r="E208" s="3" t="inlineStr">
-        <is>
-          <t>DEN (14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="5" t="inlineStr">
-        <is>
-          <t>WR85</t>
-        </is>
-      </c>
-      <c r="B209" s="3" t="n">
-        <v>233</v>
-      </c>
-      <c r="C209" s="4" t="n">
+      <c r="F211" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="inlineStr">
+        <is>
+          <t>WR86</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="n">
         <v>239</v>
       </c>
-      <c r="D209" s="3" t="inlineStr">
-        <is>
-          <t>Malachi Corley</t>
-        </is>
-      </c>
-      <c r="E209" s="3" t="inlineStr">
-        <is>
-          <t>NYJ (12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
+      <c r="C212" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>Zay Jones</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F212" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
         <is>
           <t>RB68</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
-        <v>234</v>
-      </c>
-      <c r="C210" s="9" t="n">
+      <c r="B213" s="3" t="n">
+        <v>240</v>
+      </c>
+      <c r="C213" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>Keaton Mitchell</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F213" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>RB69</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>241</v>
+      </c>
+      <c r="C214" s="9" t="n">
         <v>162</v>
       </c>
-      <c r="D210" s="3" t="inlineStr">
+      <c r="D214" s="3" t="inlineStr">
         <is>
           <t>Tyrone Tracy</t>
         </is>
       </c>
-      <c r="E210" s="3" t="inlineStr">
+      <c r="E214" s="3" t="inlineStr">
         <is>
           <t>NYG (11)</t>
         </is>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>RB69</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="n">
-        <v>235</v>
-      </c>
-      <c r="C211" s="4" t="n">
-        <v>231</v>
-      </c>
-      <c r="D211" s="3" t="inlineStr">
-        <is>
-          <t>Justice Hill</t>
-        </is>
-      </c>
-      <c r="E211" s="3" t="inlineStr">
-        <is>
-          <t>BAL (14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>RB70</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="n">
-        <v>236</v>
-      </c>
-      <c r="C212" s="9" t="n">
-        <v>172</v>
-      </c>
-      <c r="D212" s="3" t="inlineStr">
-        <is>
-          <t>Clyde Edwards-Helaire</t>
-        </is>
-      </c>
-      <c r="E212" s="3" t="inlineStr">
-        <is>
-          <t>KC (6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="5" t="inlineStr">
-        <is>
-          <t>WR86</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="n">
-        <v>237</v>
-      </c>
-      <c r="C213" s="4" t="n">
+      <c r="F214" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t>WR87</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>242</v>
+      </c>
+      <c r="C215" s="6" t="n">
         <v>256</v>
       </c>
-      <c r="D213" s="3" t="inlineStr">
+      <c r="D215" s="3" t="inlineStr">
         <is>
           <t>Kendrick Bourne</t>
         </is>
       </c>
-      <c r="E213" s="3" t="inlineStr">
+      <c r="E215" s="3" t="inlineStr">
         <is>
           <t>NE (14)</t>
         </is>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="5" t="inlineStr">
-        <is>
-          <t>WR87</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="n">
-        <v>238</v>
-      </c>
-      <c r="C214" s="4" t="n">
-        <v>266</v>
-      </c>
-      <c r="D214" s="3" t="inlineStr">
-        <is>
-          <t>Zay Jones</t>
-        </is>
-      </c>
-      <c r="E214" s="3" t="inlineStr">
-        <is>
-          <t>ARI (11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="7" t="inlineStr">
-        <is>
-          <t>QB31</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="n">
-        <v>241</v>
-      </c>
-      <c r="C215" s="9" t="n">
-        <v>192</v>
-      </c>
-      <c r="D215" s="3" t="inlineStr">
-        <is>
-          <t>Drake Maye</t>
-        </is>
-      </c>
-      <c r="E215" s="3" t="inlineStr">
-        <is>
-          <t>NE (14)</t>
+      <c r="F215" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="10" t="inlineStr">
-        <is>
-          <t>TE29</t>
+      <c r="A216" s="5" t="inlineStr">
+        <is>
+          <t>WR88</t>
         </is>
       </c>
       <c r="B216" s="3" t="n">
-        <v>242</v>
-      </c>
-      <c r="C216" s="4" t="n">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="C216" s="9" t="n">
+        <v>184</v>
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>Michael Mayer</t>
+          <t>Jalen McMillan</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>LV (10)</t>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F216" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -5481,65 +6561,80 @@
         </is>
       </c>
       <c r="B217" s="3" t="n">
-        <v>243</v>
-      </c>
-      <c r="C217" s="4" t="n">
-        <v>206</v>
+        <v>244</v>
+      </c>
+      <c r="C217" s="9" t="n">
+        <v>192</v>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>Justin Fields</t>
+          <t>Drake Maye</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>PIT (9)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F217" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>RB71</t>
+      <c r="A218" s="5" t="inlineStr">
+        <is>
+          <t>WR89</t>
         </is>
       </c>
       <c r="B218" s="3" t="n">
-        <v>244</v>
-      </c>
-      <c r="C218" s="4" t="n">
-        <v>234</v>
+        <v>245</v>
+      </c>
+      <c r="C218" s="9" t="n">
+        <v>196</v>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>Jamaal Williams</t>
+          <t>Odell Beckham</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F218" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="5" t="inlineStr">
-        <is>
-          <t>WR89</t>
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>RB70</t>
         </is>
       </c>
       <c r="B219" s="3" t="n">
         <v>247</v>
       </c>
       <c r="C219" s="9" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t>Odell Beckham</t>
+          <t>Kimani Vidal</t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>MIA (6)</t>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F219" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -5550,99 +6645,119 @@
         </is>
       </c>
       <c r="B220" s="3" t="n">
-        <v>249</v>
-      </c>
-      <c r="C220" s="9" t="n">
-        <v>184</v>
+        <v>248</v>
+      </c>
+      <c r="C220" s="6" t="n">
+        <v>236</v>
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>Jalen McMillan</t>
+          <t>DJ Chark</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F220" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
+          <t>RB71</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>249</v>
+      </c>
+      <c r="C221" s="6" t="n">
+        <v>234</v>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>Jamaal Williams</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F221" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
           <t>RB72</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B222" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="C221" s="9" t="n">
+      <c r="C222" s="9" t="n">
         <v>175</v>
       </c>
-      <c r="D221" s="3" t="inlineStr">
+      <c r="D222" s="3" t="inlineStr">
         <is>
           <t>Tank Bigsby</t>
         </is>
       </c>
-      <c r="E221" s="3" t="inlineStr">
+      <c r="E222" s="3" t="inlineStr">
         <is>
           <t>JAC (12)</t>
         </is>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="5" t="inlineStr">
-        <is>
-          <t>WR91</t>
-        </is>
-      </c>
-      <c r="B222" s="3" t="n">
+      <c r="F222" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="10" t="inlineStr">
+        <is>
+          <t>TE30</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="n">
         <v>251</v>
       </c>
-      <c r="C222" s="4" t="n">
-        <v>236</v>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>DJ Chark</t>
-        </is>
-      </c>
-      <c r="E222" s="3" t="inlineStr">
-        <is>
-          <t>LAC (5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="5" t="inlineStr">
-        <is>
-          <t>WR92</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="n">
-        <v>252</v>
-      </c>
-      <c r="C223" s="4" t="n">
-        <v>221</v>
+      <c r="C223" s="9" t="n">
+        <v>189</v>
       </c>
       <c r="D223" s="3" t="inlineStr">
         <is>
-          <t>Treylon Burks</t>
+          <t>Jonnu Smith</t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t>TEN (5)</t>
+          <t>MIA (6)</t>
+        </is>
+      </c>
+      <c r="F223" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="5" t="inlineStr">
         <is>
-          <t>WR93</t>
+          <t>WR91</t>
         </is>
       </c>
       <c r="B224" s="3" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C224" s="9" t="n">
         <v>150</v>
@@ -5657,142 +6772,177 @@
           <t>CIN (12)</t>
         </is>
       </c>
+      <c r="F224" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="10" t="inlineStr">
         <is>
-          <t>TE30</t>
+          <t>TE31</t>
         </is>
       </c>
       <c r="B225" s="3" t="n">
         <v>255</v>
       </c>
-      <c r="C225" s="4" t="n">
-        <v>248</v>
+      <c r="C225" s="6" t="n">
+        <v>249</v>
       </c>
       <c r="D225" s="3" t="inlineStr">
         <is>
-          <t>Jelani Woods</t>
+          <t>Gerald Everett</t>
         </is>
       </c>
       <c r="E225" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>CHI (7)</t>
+        </is>
+      </c>
+      <c r="F225" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="inlineStr">
-        <is>
-          <t>RB73</t>
+      <c r="A226" s="5" t="inlineStr">
+        <is>
+          <t>WR93</t>
         </is>
       </c>
       <c r="B226" s="3" t="n">
-        <v>257</v>
-      </c>
-      <c r="C226" s="4" t="n">
-        <v>233</v>
+        <v>258</v>
+      </c>
+      <c r="C226" s="6" t="n">
+        <v>221</v>
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t>Samaje Perine</t>
+          <t>Treylon Burks</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>TEN (5)</t>
+        </is>
+      </c>
+      <c r="F226" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="10" t="inlineStr">
         <is>
-          <t>TE31</t>
+          <t>TE32</t>
         </is>
       </c>
       <c r="B227" s="3" t="n">
-        <v>259</v>
-      </c>
-      <c r="C227" s="9" t="n">
-        <v>189</v>
+        <v>260</v>
+      </c>
+      <c r="C227" s="6" t="n">
+        <v>254</v>
       </c>
       <c r="D227" s="3" t="inlineStr">
         <is>
-          <t>Jonnu Smith</t>
+          <t>Ja'Tavion Sanders</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr">
         <is>
-          <t>MIA (6)</t>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F227" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="10" t="inlineStr">
-        <is>
-          <t>TE32</t>
+      <c r="A228" s="5" t="inlineStr">
+        <is>
+          <t>WR94</t>
         </is>
       </c>
       <c r="B228" s="3" t="n">
-        <v>260</v>
-      </c>
-      <c r="C228" s="4" t="n">
-        <v>249</v>
+        <v>261</v>
+      </c>
+      <c r="C228" s="6" t="n">
+        <v>267</v>
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>Gerald Everett</t>
+          <t>A.T. Perry</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>CHI (7)</t>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F228" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="10" t="inlineStr">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>RB73</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="n">
+        <v>262</v>
+      </c>
+      <c r="C229" s="6" t="n">
+        <v>233</v>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>Samaje Perine</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F229" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="10" t="inlineStr">
         <is>
           <t>TE33</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
-        <v>261</v>
-      </c>
-      <c r="C229" s="4" t="n">
-        <v>254</v>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>Ja'Tavion Sanders</t>
-        </is>
-      </c>
-      <c r="E229" s="3" t="inlineStr">
-        <is>
-          <t>CAR (11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="5" t="inlineStr">
-        <is>
-          <t>WR94</t>
-        </is>
-      </c>
       <c r="B230" s="3" t="n">
-        <v>262</v>
-      </c>
-      <c r="C230" s="4" t="n">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="C230" s="6" t="n">
+        <v>211</v>
       </c>
       <c r="D230" s="3" t="inlineStr">
         <is>
-          <t>A.T. Perry</t>
+          <t>Dawson Knox</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F230" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -5803,157 +6953,192 @@
         </is>
       </c>
       <c r="B231" s="3" t="n">
-        <v>263</v>
-      </c>
-      <c r="C231" s="4" t="n">
-        <v>211</v>
+        <v>264</v>
+      </c>
+      <c r="C231" s="6" t="n">
+        <v>248</v>
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t>Dawson Knox</t>
+          <t>Jelani Woods</t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr">
         <is>
-          <t>BUF (12)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F231" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>RB74</t>
+      <c r="A232" s="7" t="inlineStr">
+        <is>
+          <t>QB33</t>
         </is>
       </c>
       <c r="B232" s="3" t="n">
-        <v>264</v>
-      </c>
-      <c r="C232" s="4" t="n">
-        <v>203</v>
+        <v>265</v>
+      </c>
+      <c r="C232" s="6" t="n">
+        <v>244</v>
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t>Will Shipley</t>
+          <t>Gardner Minshew</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>PHI (5)</t>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F232" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="5" t="inlineStr">
-        <is>
-          <t>WR95</t>
+      <c r="A233" s="10" t="inlineStr">
+        <is>
+          <t>TE35</t>
         </is>
       </c>
       <c r="B233" s="3" t="n">
         <v>266</v>
       </c>
-      <c r="C233" s="9" t="n">
-        <v>197</v>
+      <c r="C233" s="6" t="n">
+        <v>253</v>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t>Cedric Tillman</t>
+          <t>Zach Ertz</t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr">
         <is>
-          <t>CLE (10)</t>
+          <t>WAS (14)</t>
+        </is>
+      </c>
+      <c r="F233" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="5" t="inlineStr">
-        <is>
-          <t>WR96</t>
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>RB74</t>
         </is>
       </c>
       <c r="B234" s="3" t="n">
         <v>267</v>
       </c>
-      <c r="C234" s="4" t="n">
-        <v>220</v>
+      <c r="C234" s="6" t="n">
+        <v>203</v>
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t>Josh Reynolds</t>
+          <t>Will Shipley</t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F234" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="5" t="inlineStr">
         <is>
-          <t>WR97</t>
+          <t>WR95</t>
         </is>
       </c>
       <c r="B235" s="3" t="n">
         <v>268</v>
       </c>
-      <c r="C235" s="4" t="n">
-        <v>258</v>
+      <c r="C235" s="6" t="n">
+        <v>220</v>
       </c>
       <c r="D235" s="3" t="inlineStr">
         <is>
-          <t>Alec Pierce</t>
+          <t>Josh Reynolds</t>
         </is>
       </c>
       <c r="E235" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F235" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="5" t="inlineStr">
         <is>
-          <t>WR98</t>
+          <t>WR96</t>
         </is>
       </c>
       <c r="B236" s="3" t="n">
-        <v>269</v>
-      </c>
-      <c r="C236" s="4" t="n">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="C236" s="9" t="n">
+        <v>197</v>
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>Devontez Walker</t>
+          <t>Cedric Tillman</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>BAL (14)</t>
+          <t>CLE (10)</t>
+        </is>
+      </c>
+      <c r="F236" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="5" t="inlineStr">
         <is>
-          <t>WR99</t>
+          <t>WR97</t>
         </is>
       </c>
       <c r="B237" s="3" t="n">
-        <v>270</v>
-      </c>
-      <c r="C237" s="4" t="n">
-        <v>265</v>
+        <v>271</v>
+      </c>
+      <c r="C237" s="6" t="n">
+        <v>258</v>
       </c>
       <c r="D237" s="3" t="inlineStr">
         <is>
-          <t>Trey Palmer</t>
+          <t>Alec Pierce</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr">
         <is>
-          <t>TB (11)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F237" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -5966,7 +7151,7 @@
       <c r="B238" s="3" t="n">
         <v>272</v>
       </c>
-      <c r="C238" s="4" t="n">
+      <c r="C238" s="6" t="n">
         <v>279</v>
       </c>
       <c r="D238" s="3" t="inlineStr">
@@ -5979,114 +7164,139 @@
           <t>LV (10)</t>
         </is>
       </c>
+      <c r="F238" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="5" t="inlineStr">
-        <is>
-          <t>WR100</t>
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>RB76</t>
         </is>
       </c>
       <c r="B239" s="3" t="n">
         <v>273</v>
       </c>
-      <c r="C239" s="4" t="n">
-        <v>225</v>
+      <c r="C239" s="9" t="n">
+        <v>156</v>
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>K.J. Osborn</t>
+          <t>Jordan Mason</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr">
         <is>
-          <t>NE (14)</t>
+          <t>SF (9)</t>
+        </is>
+      </c>
+      <c r="F239" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="7" t="inlineStr">
-        <is>
-          <t>QB33</t>
+      <c r="A240" s="5" t="inlineStr">
+        <is>
+          <t>WR98</t>
         </is>
       </c>
       <c r="B240" s="3" t="n">
         <v>274</v>
       </c>
-      <c r="C240" s="4" t="n">
-        <v>244</v>
+      <c r="C240" s="6" t="n">
+        <v>225</v>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>Gardner Minshew</t>
+          <t>K.J. Osborn</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>LV (10)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F240" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="7" t="inlineStr">
-        <is>
-          <t>QB34</t>
+      <c r="A241" s="5" t="inlineStr">
+        <is>
+          <t>WR99</t>
         </is>
       </c>
       <c r="B241" s="3" t="n">
         <v>275</v>
       </c>
-      <c r="C241" s="9" t="n">
-        <v>188</v>
+      <c r="C241" s="6" t="n">
+        <v>273</v>
       </c>
       <c r="D241" s="3" t="inlineStr">
         <is>
-          <t>Sam Darnold</t>
+          <t>Devontez Walker</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr">
         <is>
-          <t>MIN (6)</t>
+          <t>BAL (14)</t>
+        </is>
+      </c>
+      <c r="F241" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>RB76</t>
+      <c r="A242" s="5" t="inlineStr">
+        <is>
+          <t>WR100</t>
         </is>
       </c>
       <c r="B242" s="3" t="n">
-        <v>277</v>
-      </c>
-      <c r="C242" s="4" t="n">
-        <v>201</v>
+        <v>278</v>
+      </c>
+      <c r="C242" s="6" t="n">
+        <v>265</v>
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>Trey Sermon</t>
+          <t>Trey Palmer</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>IND (14)</t>
+          <t>TB (11)</t>
+        </is>
+      </c>
+      <c r="F242" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="10" t="inlineStr">
-        <is>
-          <t>TE35</t>
+      <c r="A243" s="5" t="inlineStr">
+        <is>
+          <t>WR101</t>
         </is>
       </c>
       <c r="B243" s="3" t="n">
-        <v>278</v>
-      </c>
-      <c r="C243" s="4" t="n">
-        <v>253</v>
+        <v>279</v>
+      </c>
+      <c r="C243" s="6" t="n">
+        <v>240</v>
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t>Zach Ertz</t>
+          <t>Luke McCaffrey</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
@@ -6094,119 +7304,149 @@
           <t>WAS (14)</t>
         </is>
       </c>
+      <c r="F243" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="10" t="inlineStr">
-        <is>
-          <t>TE36</t>
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>RB77</t>
         </is>
       </c>
       <c r="B244" s="3" t="n">
         <v>280</v>
       </c>
-      <c r="C244" s="4" t="n">
-        <v>228</v>
+      <c r="C244" s="6" t="n">
+        <v>201</v>
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>Greg Dulcich</t>
+          <t>Trey Sermon</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>IND (14)</t>
+        </is>
+      </c>
+      <c r="F244" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>RB77</t>
+      <c r="A245" s="5" t="inlineStr">
+        <is>
+          <t>WR102</t>
         </is>
       </c>
       <c r="B245" s="3" t="n">
         <v>281</v>
       </c>
-      <c r="C245" s="9" t="n">
-        <v>156</v>
+      <c r="C245" s="6" t="n">
+        <v>216</v>
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t>Jordan Mason</t>
+          <t>Greg Dortch</t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr">
         <is>
-          <t>SF (9)</t>
+          <t>ARI (11)</t>
+        </is>
+      </c>
+      <c r="F245" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="5" t="inlineStr">
-        <is>
-          <t>WR101</t>
+      <c r="A246" s="10" t="inlineStr">
+        <is>
+          <t>TE36</t>
         </is>
       </c>
       <c r="B246" s="3" t="n">
         <v>282</v>
       </c>
-      <c r="C246" s="4" t="n">
-        <v>240</v>
+      <c r="C246" s="6" t="n">
+        <v>228</v>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>Luke McCaffrey</t>
+          <t>Greg Dulcich</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>WAS (14)</t>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F246" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="5" t="inlineStr">
         <is>
-          <t>WR102</t>
+          <t>WR103</t>
         </is>
       </c>
       <c r="B247" s="3" t="n">
-        <v>288</v>
-      </c>
-      <c r="C247" s="4" t="n">
-        <v>216</v>
+        <v>283</v>
+      </c>
+      <c r="C247" s="9" t="n">
+        <v>183</v>
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>Greg Dortch</t>
+          <t>Jalen Tolbert</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
         <is>
-          <t>ARI (11)</t>
+          <t>DAL (7)</t>
+        </is>
+      </c>
+      <c r="F247" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="5" t="inlineStr">
-        <is>
-          <t>WR103</t>
+      <c r="A248" s="7" t="inlineStr">
+        <is>
+          <t>QB34</t>
         </is>
       </c>
       <c r="B248" s="3" t="n">
-        <v>289</v>
-      </c>
-      <c r="C248" s="4" t="n">
-        <v>261</v>
+        <v>285</v>
+      </c>
+      <c r="C248" s="6" t="n">
+        <v>212</v>
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Aidan O'Connell</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>HOU (14)</t>
+          <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F248" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -6217,42 +7457,52 @@
         </is>
       </c>
       <c r="B249" s="3" t="n">
-        <v>290</v>
-      </c>
-      <c r="C249" s="4" t="n">
-        <v>268</v>
+        <v>286</v>
+      </c>
+      <c r="C249" s="6" t="n">
+        <v>261</v>
       </c>
       <c r="D249" s="3" t="inlineStr">
         <is>
-          <t>Kadarius Toney</t>
+          <t>Noah Brown</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
         <is>
-          <t>KC (6)</t>
+          <t>HOU (14)</t>
+        </is>
+      </c>
+      <c r="F249" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="7" t="inlineStr">
-        <is>
-          <t>QB35</t>
+      <c r="A250" s="10" t="inlineStr">
+        <is>
+          <t>TE38</t>
         </is>
       </c>
       <c r="B250" s="3" t="n">
-        <v>294</v>
-      </c>
-      <c r="C250" s="4" t="n">
-        <v>212</v>
+        <v>291</v>
+      </c>
+      <c r="C250" s="9" t="n">
+        <v>170</v>
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>Aidan O'Connell</t>
+          <t>Colby Parkinson</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>LV (10)</t>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F250" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -6263,42 +7513,52 @@
         </is>
       </c>
       <c r="B251" s="3" t="n">
+        <v>292</v>
+      </c>
+      <c r="C251" s="6" t="n">
+        <v>268</v>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>Kadarius Toney</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr">
+        <is>
+          <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F251" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="7" t="inlineStr">
+        <is>
+          <t>QB35</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="n">
         <v>296</v>
       </c>
-      <c r="C251" s="9" t="n">
-        <v>183</v>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>Jalen Tolbert</t>
-        </is>
-      </c>
-      <c r="E251" s="3" t="inlineStr">
-        <is>
-          <t>DAL (7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="10" t="inlineStr">
-        <is>
-          <t>TE38</t>
-        </is>
-      </c>
-      <c r="B252" s="3" t="n">
-        <v>302</v>
-      </c>
-      <c r="C252" s="4" t="n">
-        <v>230</v>
+      <c r="C252" s="6" t="n">
+        <v>243</v>
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>Theo Johnson</t>
+          <t>Jacoby Brissett</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>NYG (11)</t>
+          <t>NE (14)</t>
+        </is>
+      </c>
+      <c r="F252" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
         </is>
       </c>
     </row>
@@ -6309,19 +7569,24 @@
         </is>
       </c>
       <c r="B253" s="3" t="n">
-        <v>307</v>
-      </c>
-      <c r="C253" s="9" t="n">
-        <v>170</v>
+        <v>299</v>
+      </c>
+      <c r="C253" s="6" t="n">
+        <v>230</v>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>Colby Parkinson</t>
+          <t>Theo Johnson</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
         <is>
-          <t>LAR (6)</t>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F253" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
@@ -6332,134 +7597,164 @@
         </is>
       </c>
       <c r="B254" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="C254" s="6" t="n">
+        <v>252</v>
+      </c>
+      <c r="D254" s="3" t="inlineStr">
+        <is>
+          <t>Daniel Bellinger</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>NYG (11)</t>
+        </is>
+      </c>
+      <c r="F254" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>RB91</t>
+        </is>
+      </c>
+      <c r="B255" s="3" t="n">
         <v>313</v>
       </c>
-      <c r="C254" s="4" t="n">
-        <v>252</v>
-      </c>
-      <c r="D254" s="3" t="inlineStr">
-        <is>
-          <t>Daniel Bellinger</t>
-        </is>
-      </c>
-      <c r="E254" s="3" t="inlineStr">
-        <is>
-          <t>NYG (11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="7" t="inlineStr">
+      <c r="C255" s="6" t="n">
+        <v>205</v>
+      </c>
+      <c r="D255" s="3" t="inlineStr">
+        <is>
+          <t>Deneric Prince</t>
+        </is>
+      </c>
+      <c r="E255" s="3" t="inlineStr">
+        <is>
+          <t>KC (6)</t>
+        </is>
+      </c>
+      <c r="F255" s="3" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="5" t="inlineStr">
+        <is>
+          <t>WR110</t>
+        </is>
+      </c>
+      <c r="B256" s="3" t="n">
+        <v>317</v>
+      </c>
+      <c r="C256" s="6" t="n">
+        <v>272</v>
+      </c>
+      <c r="D256" s="3" t="inlineStr">
+        <is>
+          <t>Tutu Atwell</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F256" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="10" t="inlineStr">
+        <is>
+          <t>TE41</t>
+        </is>
+      </c>
+      <c r="B257" s="3" t="n">
+        <v>318</v>
+      </c>
+      <c r="C257" s="6" t="n">
+        <v>251</v>
+      </c>
+      <c r="D257" s="3" t="inlineStr">
+        <is>
+          <t>Hayden Hurst</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="inlineStr">
+        <is>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F257" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="7" t="inlineStr">
         <is>
           <t>QB36</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
-        <v>314</v>
-      </c>
-      <c r="C255" s="4" t="n">
-        <v>243</v>
-      </c>
-      <c r="D255" s="3" t="inlineStr">
-        <is>
-          <t>Jacoby Brissett</t>
-        </is>
-      </c>
-      <c r="E255" s="3" t="inlineStr">
-        <is>
-          <t>NE (14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="10" t="inlineStr">
-        <is>
-          <t>TE41</t>
-        </is>
-      </c>
-      <c r="B256" s="3" t="n">
-        <v>321</v>
-      </c>
-      <c r="C256" s="4" t="n">
-        <v>251</v>
-      </c>
-      <c r="D256" s="3" t="inlineStr">
-        <is>
-          <t>Hayden Hurst</t>
-        </is>
-      </c>
-      <c r="E256" s="3" t="inlineStr">
-        <is>
-          <t>LAC (5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="5" t="inlineStr">
+      <c r="B258" s="3" t="n">
+        <v>322</v>
+      </c>
+      <c r="C258" s="6" t="n">
+        <v>242</v>
+      </c>
+      <c r="D258" s="3" t="inlineStr">
+        <is>
+          <t>Michael Penix</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>ATL (12)</t>
+        </is>
+      </c>
+      <c r="F258" s="3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="5" t="inlineStr">
         <is>
           <t>WR111</t>
-        </is>
-      </c>
-      <c r="B257" s="3" t="n">
-        <v>322</v>
-      </c>
-      <c r="C257" s="4" t="n">
-        <v>272</v>
-      </c>
-      <c r="D257" s="3" t="inlineStr">
-        <is>
-          <t>Tutu Atwell</t>
-        </is>
-      </c>
-      <c r="E257" s="3" t="inlineStr">
-        <is>
-          <t>LAR (6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="5" t="inlineStr">
-        <is>
-          <t>WR112</t>
-        </is>
-      </c>
-      <c r="B258" s="3" t="n">
-        <v>325</v>
-      </c>
-      <c r="C258" s="4" t="n">
-        <v>219</v>
-      </c>
-      <c r="D258" s="3" t="inlineStr">
-        <is>
-          <t>Kalif Raymond</t>
-        </is>
-      </c>
-      <c r="E258" s="3" t="inlineStr">
-        <is>
-          <t>DET (5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="7" t="inlineStr">
-        <is>
-          <t>QB37</t>
         </is>
       </c>
       <c r="B259" s="3" t="n">
         <v>326</v>
       </c>
-      <c r="C259" s="4" t="n">
-        <v>242</v>
+      <c r="C259" s="6" t="n">
+        <v>219</v>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>Michael Penix</t>
+          <t>Kalif Raymond</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
         <is>
-          <t>ATL (12)</t>
+          <t>DET (5)</t>
+        </is>
+      </c>
+      <c r="F259" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -6470,78 +7765,93 @@
         </is>
       </c>
       <c r="B260" s="3" t="n">
+        <v>333</v>
+      </c>
+      <c r="C260" s="6" t="n">
+        <v>257</v>
+      </c>
+      <c r="D260" s="3" t="inlineStr">
+        <is>
+          <t>Jauan Jennings</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
+        <is>
+          <t>SF (9)</t>
+        </is>
+      </c>
+      <c r="F260" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="5" t="inlineStr">
+        <is>
+          <t>WR117</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="n">
         <v>334</v>
       </c>
-      <c r="C260" s="4" t="n">
+      <c r="C261" s="6" t="n">
         <v>275</v>
       </c>
-      <c r="D260" s="3" t="inlineStr">
+      <c r="D261" s="3" t="inlineStr">
         <is>
           <t>Malik Washington</t>
         </is>
       </c>
-      <c r="E260" s="3" t="inlineStr">
+      <c r="E261" s="3" t="inlineStr">
         <is>
           <t>MIA (6)</t>
         </is>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="inlineStr">
-        <is>
-          <t>RB101</t>
-        </is>
-      </c>
-      <c r="B261" s="3" t="n">
-        <v>335</v>
-      </c>
-      <c r="C261" s="4" t="n">
-        <v>205</v>
-      </c>
-      <c r="D261" s="3" t="inlineStr">
-        <is>
-          <t>Deneric Prince</t>
-        </is>
-      </c>
-      <c r="E261" s="3" t="inlineStr">
-        <is>
-          <t>KC (6)</t>
+      <c r="F261" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="5" t="inlineStr">
         <is>
-          <t>WR117</t>
+          <t>WR118</t>
         </is>
       </c>
       <c r="B262" s="3" t="n">
-        <v>337</v>
-      </c>
-      <c r="C262" s="4" t="n">
-        <v>271</v>
+        <v>335</v>
+      </c>
+      <c r="C262" s="6" t="n">
+        <v>214</v>
       </c>
       <c r="D262" s="3" t="inlineStr">
         <is>
-          <t>Calvin AustinI</t>
+          <t>Van Jefferson</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
           <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F262" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="5" t="inlineStr">
         <is>
-          <t>WR118</t>
+          <t>WR119</t>
         </is>
       </c>
       <c r="B263" s="3" t="n">
-        <v>338</v>
-      </c>
-      <c r="C263" s="4" t="n">
+        <v>336</v>
+      </c>
+      <c r="C263" s="6" t="n">
         <v>241</v>
       </c>
       <c r="D263" s="3" t="inlineStr">
@@ -6552,19 +7862,24 @@
       <c r="E263" s="3" t="inlineStr">
         <is>
           <t>GB (10)</t>
+        </is>
+      </c>
+      <c r="F263" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="5" t="inlineStr">
         <is>
-          <t>WR119</t>
+          <t>WR120</t>
         </is>
       </c>
       <c r="B264" s="3" t="n">
-        <v>339</v>
-      </c>
-      <c r="C264" s="4" t="n">
+        <v>337</v>
+      </c>
+      <c r="C264" s="6" t="n">
         <v>223</v>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -6575,121 +7890,151 @@
       <c r="E264" s="3" t="inlineStr">
         <is>
           <t>LV (10)</t>
+        </is>
+      </c>
+      <c r="F264" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="5" t="inlineStr">
         <is>
-          <t>WR120</t>
+          <t>WR121</t>
         </is>
       </c>
       <c r="B265" s="3" t="n">
-        <v>342</v>
-      </c>
-      <c r="C265" s="4" t="n">
-        <v>257</v>
+        <v>338</v>
+      </c>
+      <c r="C265" s="6" t="n">
+        <v>271</v>
       </c>
       <c r="D265" s="3" t="inlineStr">
         <is>
-          <t>Jauan Jennings</t>
+          <t>Calvin AustinI</t>
         </is>
       </c>
       <c r="E265" s="3" t="inlineStr">
         <is>
-          <t>SF (9)</t>
+          <t>PIT (9)</t>
+        </is>
+      </c>
+      <c r="F265" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="5" t="inlineStr">
         <is>
-          <t>WR124</t>
+          <t>WR122</t>
         </is>
       </c>
       <c r="B266" s="3" t="n">
-        <v>348</v>
-      </c>
-      <c r="C266" s="4" t="n">
+        <v>343</v>
+      </c>
+      <c r="C266" s="6" t="n">
+        <v>237</v>
+      </c>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>Tim Patrick</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
+        <is>
+          <t>DEN (14)</t>
+        </is>
+      </c>
+      <c r="F266" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="10" t="inlineStr">
+        <is>
+          <t>TE43</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="n">
+        <v>344</v>
+      </c>
+      <c r="C267" s="6" t="n">
+        <v>227</v>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="E267" s="3" t="inlineStr">
+        <is>
+          <t>LAC (5)</t>
+        </is>
+      </c>
+      <c r="F267" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="5" t="inlineStr">
+        <is>
+          <t>WR125</t>
+        </is>
+      </c>
+      <c r="B268" s="3" t="n">
+        <v>354</v>
+      </c>
+      <c r="C268" s="6" t="n">
         <v>238</v>
       </c>
-      <c r="D266" s="3" t="inlineStr">
+      <c r="D268" s="3" t="inlineStr">
         <is>
           <t>Xavier Gipson</t>
         </is>
       </c>
-      <c r="E266" s="3" t="inlineStr">
+      <c r="E268" s="3" t="inlineStr">
         <is>
           <t>NYJ (12)</t>
         </is>
       </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="5" t="inlineStr">
-        <is>
-          <t>WR125</t>
-        </is>
-      </c>
-      <c r="B267" s="3" t="n">
-        <v>349</v>
-      </c>
-      <c r="C267" s="4" t="n">
-        <v>214</v>
-      </c>
-      <c r="D267" s="3" t="inlineStr">
-        <is>
-          <t>Van Jefferson</t>
-        </is>
-      </c>
-      <c r="E267" s="3" t="inlineStr">
-        <is>
-          <t>PIT (9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="10" t="inlineStr">
-        <is>
-          <t>TE45</t>
-        </is>
-      </c>
-      <c r="B268" s="3" t="n">
-        <v>357</v>
-      </c>
-      <c r="C268" s="4" t="n">
-        <v>227</v>
-      </c>
-      <c r="D268" s="3" t="inlineStr">
-        <is>
-          <t>Will Dissly</t>
-        </is>
-      </c>
-      <c r="E268" s="3" t="inlineStr">
-        <is>
-          <t>LAC (5)</t>
+      <c r="F268" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="5" t="inlineStr">
         <is>
-          <t>WR129</t>
+          <t>WR126</t>
         </is>
       </c>
       <c r="B269" s="3" t="n">
-        <v>361</v>
-      </c>
-      <c r="C269" s="4" t="n">
-        <v>237</v>
+        <v>355</v>
+      </c>
+      <c r="C269" s="6" t="n">
+        <v>213</v>
       </c>
       <c r="D269" s="3" t="inlineStr">
         <is>
-          <t>Tim Patrick</t>
+          <t>Johnny Wilson</t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
         <is>
-          <t>DEN (14)</t>
+          <t>PHI (5)</t>
+        </is>
+      </c>
+      <c r="F269" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
@@ -6700,111 +8045,192 @@
         </is>
       </c>
       <c r="B270" s="3" t="n">
-        <v>367</v>
-      </c>
-      <c r="C270" s="4" t="n">
-        <v>213</v>
+        <v>365</v>
+      </c>
+      <c r="C270" s="6" t="n">
+        <v>235</v>
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t>Johnny Wilson</t>
+          <t>Jordan Whittington</t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>PHI (5)</t>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F270" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="5" t="inlineStr">
-        <is>
-          <t>WR132</t>
+      <c r="A271" s="10" t="inlineStr">
+        <is>
+          <t>TE50</t>
         </is>
       </c>
       <c r="B271" s="3" t="n">
-        <v>368</v>
-      </c>
-      <c r="C271" s="4" t="n">
-        <v>274</v>
+        <v>376</v>
+      </c>
+      <c r="C271" s="6" t="n">
+        <v>247</v>
       </c>
       <c r="D271" s="3" t="inlineStr">
         <is>
-          <t>Parker Washington</t>
+          <t>Tommy Tremble</t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
         <is>
-          <t>JAC (12)</t>
+          <t>CAR (11)</t>
+        </is>
+      </c>
+      <c r="F271" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="10" t="inlineStr">
-        <is>
-          <t>TE50</t>
+      <c r="A272" s="5" t="inlineStr">
+        <is>
+          <t>WR135</t>
         </is>
       </c>
       <c r="B272" s="3" t="n">
-        <v>376</v>
-      </c>
-      <c r="C272" s="4" t="n">
-        <v>250</v>
+        <v>377</v>
+      </c>
+      <c r="C272" s="6" t="n">
+        <v>255</v>
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t>Davis Allen</t>
+          <t>Cedrick Wilson</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>LAR (6)</t>
+          <t>NO (12)</t>
+        </is>
+      </c>
+      <c r="F272" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="5" t="inlineStr">
         <is>
-          <t>WR135</t>
+          <t>WR136</t>
         </is>
       </c>
       <c r="B273" s="3" t="n">
-        <v>380</v>
-      </c>
-      <c r="C273" s="4" t="n">
-        <v>255</v>
+        <v>381</v>
+      </c>
+      <c r="C273" s="6" t="n">
+        <v>215</v>
       </c>
       <c r="D273" s="3" t="inlineStr">
         <is>
-          <t>Cedrick Wilson</t>
+          <t>Jalen Nailor</t>
         </is>
       </c>
       <c r="E273" s="3" t="inlineStr">
         <is>
-          <t>NO (12)</t>
+          <t>MIN (6)</t>
+        </is>
+      </c>
+      <c r="F273" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="10" t="inlineStr">
-        <is>
-          <t>TE54</t>
+      <c r="A274" s="5" t="inlineStr">
+        <is>
+          <t>WR137</t>
         </is>
       </c>
       <c r="B274" s="3" t="n">
-        <v>391</v>
-      </c>
-      <c r="C274" s="4" t="n">
-        <v>247</v>
+        <v>383</v>
+      </c>
+      <c r="C274" s="6" t="n">
+        <v>274</v>
       </c>
       <c r="D274" s="3" t="inlineStr">
         <is>
-          <t>Tommy Tremble</t>
+          <t>Parker Washington</t>
         </is>
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>CAR (11)</t>
+          <t>JAC (12)</t>
+        </is>
+      </c>
+      <c r="F274" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="5" t="inlineStr">
+        <is>
+          <t>WR138</t>
+        </is>
+      </c>
+      <c r="B275" s="3" t="n">
+        <v>389</v>
+      </c>
+      <c r="C275" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="D275" s="3" t="inlineStr">
+        <is>
+          <t>Mack Hollins</t>
+        </is>
+      </c>
+      <c r="E275" s="3" t="inlineStr">
+        <is>
+          <t>BUF (12)</t>
+        </is>
+      </c>
+      <c r="F275" s="3" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="10" t="inlineStr">
+        <is>
+          <t>TE53</t>
+        </is>
+      </c>
+      <c r="B276" s="3" t="n">
+        <v>390</v>
+      </c>
+      <c r="C276" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="D276" s="3" t="inlineStr">
+        <is>
+          <t>Davis Allen</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>LAR (6)</t>
+        </is>
+      </c>
+      <c r="F276" s="3" t="inlineStr">
+        <is>
+          <t>TE</t>
         </is>
       </c>
     </row>
